--- a/LatBo/tools/SizingGuide.xlsx
+++ b/LatBo/tools/SizingGuide.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Dropbox (Personal)\0. Work\3. LBM\JLR\Wall-Mounted Cube Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Dropbox (Personal)\0. Work\3. LBM\C++ Projects\LatBo\LatBo\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7932" tabRatio="323" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" tabRatio="323" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bulldozer CSF" sheetId="1" r:id="rId1"/>
     <sheet name="Intel CSF" sheetId="2" r:id="rId2"/>
-    <sheet name="Laptop" sheetId="4" r:id="rId3"/>
-    <sheet name="Archer" sheetId="5" r:id="rId4"/>
-    <sheet name="Flair2" sheetId="7" r:id="rId5"/>
+    <sheet name="Archer" sheetId="5" r:id="rId3"/>
+    <sheet name="Flair2" sheetId="7" r:id="rId4"/>
+    <sheet name="Laptop" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="26">
   <si>
     <t>No of Nodes</t>
   </si>
@@ -83,14 +83,6 @@
     <t>Valid Config</t>
   </si>
   <si>
-    <t>Average
-Timestep Time</t>
-  </si>
-  <si>
-    <t>Average
-MPI Time</t>
-  </si>
-  <si>
     <t>Valid
 Partial nodes</t>
   </si>
@@ -112,20 +104,11 @@
 Full nodes</t>
   </si>
   <si>
-    <t>CSF Prelim</t>
+    <t>Surface Points
+/Core</t>
   </si>
   <si>
-    <t>job_1</t>
-  </si>
-  <si>
-    <t>job_2</t>
-  </si>
-  <si>
-    <t>job_3</t>
-  </si>
-  <si>
-    <t>Surface Points
-/Core</t>
+    <t>Try</t>
   </si>
 </sst>
 </file>
@@ -207,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -232,10 +215,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -588,31 +567,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P7" sqref="O7:P7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.77734375"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="1026" width="11.5546875"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="1022" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -629,13 +608,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>2</v>
@@ -653,22 +632,10 @@
         <v>17</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>4</v>
       </c>
@@ -688,31 +655,31 @@
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F16" si="2">($C$24/A2)+2</f>
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" ref="G2:G16" si="3">($C$25/B2)+2</f>
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="H2" s="5">
         <f t="shared" ref="H2:H16" si="4">($C$26/C2)+2</f>
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2" si="5">F2*G2*H2</f>
-        <v>694008</v>
+        <v>5244608</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" ref="J2" si="6">4*F2*G2+4*G2*H2+4*F2*H2</f>
-        <v>110448</v>
+        <v>368448</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" ref="K2" si="7">J2*E2</f>
-        <v>1767168</v>
+        <v>5895168</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" ref="L2:L16" si="8">K2/$C$27*100</f>
-        <v>17.2575</v>
+        <v>7.2779851851851847</v>
       </c>
       <c r="M2" s="6" t="b">
         <f>IF((F2-FLOOR(F2,1))=0,IF((G2-FLOOR(G2,1))=0,IF((H2-FLOOR(H2,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -722,15 +689,8 @@
         <f>IF(($D2-FLOOR($D2,1))=0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13">
-        <f>O2+P2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -750,31 +710,31 @@
       </c>
       <c r="F3" s="5">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>452</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="4"/>
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" ref="I3" si="10">F3*G3*H3</f>
-        <v>589032</v>
+        <v>4259648</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3" si="11">4*F3*G3+4*G3*H3+4*F3*H3</f>
-        <v>157104</v>
+        <v>424608</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" ref="K3" si="12">J3*E3</f>
-        <v>3142080</v>
+        <v>8492160</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="8"/>
-        <v>30.684375000000003</v>
+        <v>10.484148148148147</v>
       </c>
       <c r="M3" s="6" t="b">
         <f>IF((F3-FLOOR(F3,1))=0,IF((G3-FLOOR(G3,1))=0,IF((H3-FLOOR(H3,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -784,15 +744,8 @@
         <f t="shared" ref="N3:N16" si="13">IF(($D3-FLOOR($D3,1))=0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13">
-        <f t="shared" ref="Q3:Q16" si="14">O3+P3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -807,54 +760,47 @@
         <v>0.3125</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4" si="15">A4*B4*C4</f>
+        <f t="shared" ref="E4" si="14">A4*B4*C4</f>
         <v>20</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="4"/>
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4" si="16">F4*G4*H4</f>
-        <v>557928</v>
+        <f t="shared" ref="I4" si="15">F4*G4*H4</f>
+        <v>4204928</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4" si="17">4*F4*G4+4*G4*H4+4*F4*H4</f>
-        <v>94128</v>
+        <f t="shared" ref="J4" si="16">4*F4*G4+4*G4*H4+4*F4*H4</f>
+        <v>313728</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4" si="18">J4*E4</f>
-        <v>1882560</v>
+        <f t="shared" ref="K4" si="17">J4*E4</f>
+        <v>6274560</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" si="8"/>
-        <v>18.384374999999999</v>
+        <v>7.7463703703703697</v>
       </c>
       <c r="M4" s="6" t="b">
-        <f t="shared" ref="M4" si="19">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <f t="shared" ref="M4" si="18">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="N4" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -869,54 +815,47 @@
         <v>0.125</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5" si="20">A5*B5*C5</f>
+        <f t="shared" ref="E5" si="19">A5*B5*C5</f>
         <v>8</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>452</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="4"/>
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" ref="I5" si="21">F5*G5*H5</f>
-        <v>1374408</v>
+        <f t="shared" ref="I5" si="20">F5*G5*H5</f>
+        <v>10443008</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5" si="22">4*F5*G5+4*G5*H5+4*F5*H5</f>
-        <v>192048</v>
+        <f t="shared" ref="J5" si="21">4*F5*G5+4*G5*H5+4*F5*H5</f>
+        <v>642048</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" ref="K5" si="23">J5*E5</f>
-        <v>1536384</v>
+        <f t="shared" ref="K5" si="22">J5*E5</f>
+        <v>5136384</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="8"/>
-        <v>15.003749999999998</v>
+        <v>6.3412148148148146</v>
       </c>
       <c r="M5" s="6" t="b">
-        <f t="shared" ref="M5" si="24">IF((F5-FLOOR(F5,1))=0,IF((G5-FLOOR(G5,1))=0,IF((H5-FLOOR(H5,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <f t="shared" ref="M5" si="23">IF((F5-FLOOR(F5,1))=0,IF((G5-FLOOR(G5,1))=0,IF((H5-FLOOR(H5,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="N5" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -931,54 +870,47 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" ref="E6" si="25">A6*B6*C6</f>
+        <f t="shared" ref="E6" si="24">A6*B6*C6</f>
         <v>32</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="4"/>
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" ref="I6" si="26">F6*G6*H6</f>
-        <v>363528</v>
+        <f t="shared" ref="I6" si="25">F6*G6*H6</f>
+        <v>2656808</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6" si="27">4*F6*G6+4*G6*H6+4*F6*H6</f>
-        <v>89328</v>
+        <f t="shared" ref="J6" si="26">4*F6*G6+4*G6*H6+4*F6*H6</f>
+        <v>254748</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" ref="K6" si="28">J6*E6</f>
-        <v>2858496</v>
+        <f t="shared" ref="K6" si="27">J6*E6</f>
+        <v>8151936</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="8"/>
-        <v>27.914999999999999</v>
+        <v>10.064118518518518</v>
       </c>
       <c r="M6" s="6" t="b">
-        <f t="shared" ref="M6" si="29">IF((F6-FLOOR(F6,1))=0,IF((G6-FLOOR(G6,1))=0,IF((H6-FLOOR(H6,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <f t="shared" ref="M6" si="28">IF((F6-FLOOR(F6,1))=0,IF((G6-FLOOR(G6,1))=0,IF((H6-FLOOR(H6,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="N6" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -993,36 +925,36 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ref="E7:E16" si="30">A7*B7*C7</f>
+        <f t="shared" ref="E7:E16" si="29">A7*B7*C7</f>
         <v>64</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="4"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" ref="I7:I16" si="31">F7*G7*H7</f>
-        <v>184008</v>
+        <f t="shared" ref="I7:I16" si="30">F7*G7*H7</f>
+        <v>1345883</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" ref="J7:J16" si="32">4*F7*G7+4*G7*H7+4*F7*H7</f>
-        <v>49648</v>
+        <f t="shared" ref="J7:J16" si="31">4*F7*G7+4*G7*H7+4*F7*H7</f>
+        <v>163548</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" ref="K7:K16" si="33">J7*E7</f>
-        <v>3177472</v>
+        <f t="shared" ref="K7:K16" si="32">J7*E7</f>
+        <v>10467072</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="8"/>
-        <v>31.03</v>
+        <v>12.922311111111112</v>
       </c>
       <c r="M7" s="6" t="b">
         <f>IF((F7-FLOOR(F7,1))=0,IF((G7-FLOOR(G7,1))=0,IF((H7-FLOOR(H7,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -1032,21 +964,8 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O7" s="13">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="P7" s="13">
-        <v>7.4</v>
-      </c>
-      <c r="Q7" s="13">
-        <f t="shared" si="14"/>
-        <v>7.6770000000000005</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -1057,64 +976,51 @@
         <v>4</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ref="D8:D16" si="34">E8/$B$19</f>
+        <f t="shared" ref="D8:D16" si="33">E8/$B$19</f>
         <v>2</v>
       </c>
       <c r="E8" s="5">
+        <f t="shared" si="29"/>
+        <v>128</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>114.5</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="I8" s="5">
         <f t="shared" si="30"/>
-        <v>128</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I8" s="5">
+        <v>678870.5</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="31"/>
-        <v>93808</v>
-      </c>
-      <c r="J8" s="5">
+        <v>94248</v>
+      </c>
+      <c r="K8" s="5">
         <f t="shared" si="32"/>
-        <v>28848</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="33"/>
-        <v>3692544</v>
+        <v>12063744</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="8"/>
-        <v>36.059999999999995</v>
+        <v>14.89351111111111</v>
       </c>
       <c r="M8" s="6" t="b">
-        <f t="shared" ref="M8:M16" si="35">IF((F8-FLOOR(F8,1))=0,IF((G8-FLOOR(G8,1))=0,IF((H8-FLOOR(H8,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>1</v>
+        <f t="shared" ref="M8:M16" si="34">IF((F8-FLOOR(F8,1))=0,IF((G8-FLOOR(G8,1))=0,IF((H8-FLOOR(H8,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="N8" s="6" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O8" s="13">
-        <v>1.35</v>
-      </c>
-      <c r="P8" s="13">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="Q8" s="13">
-        <f t="shared" si="14"/>
-        <v>6.16</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1125,58 +1031,51 @@
         <v>4</v>
       </c>
       <c r="D9" s="5">
+        <f t="shared" si="33"/>
+        <v>2.5</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="29"/>
+        <v>160</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>114.5</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="30"/>
+        <v>546623</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="31"/>
+        <v>82758</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="32"/>
+        <v>13241280</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="8"/>
+        <v>16.347259259259257</v>
+      </c>
+      <c r="M9" s="6" t="b">
         <f t="shared" si="34"/>
-        <v>2.5</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="30"/>
-        <v>160</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="31"/>
-        <v>76752</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="32"/>
-        <v>26704</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="33"/>
-        <v>4272640</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="8"/>
-        <v>41.725000000000001</v>
-      </c>
-      <c r="M9" s="6" t="b">
-        <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -1187,58 +1086,51 @@
         <v>4</v>
       </c>
       <c r="D10" s="5">
+        <f t="shared" si="33"/>
+        <v>2.5</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="29"/>
+        <v>160</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="30"/>
+        <v>545468</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="31"/>
+        <v>80388</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="32"/>
+        <v>12862080</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="8"/>
+        <v>15.879111111111111</v>
+      </c>
+      <c r="M10" s="6" t="b">
         <f t="shared" si="34"/>
-        <v>2.5</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="30"/>
-        <v>160</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="31"/>
-        <v>75768</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="32"/>
-        <v>24688</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="33"/>
-        <v>3950080</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="8"/>
-        <v>38.574999999999996</v>
-      </c>
-      <c r="M10" s="6" t="b">
-        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N10" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>16</v>
       </c>
@@ -1249,58 +1141,51 @@
         <v>2</v>
       </c>
       <c r="D11" s="5">
+        <f t="shared" si="33"/>
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="29"/>
+        <v>160</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>58.25</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="30"/>
+        <v>548948</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="31"/>
+        <v>87558</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="32"/>
+        <v>14009280</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="8"/>
+        <v>17.295407407407406</v>
+      </c>
+      <c r="M11" s="6" t="b">
         <f t="shared" si="34"/>
-        <v>2.5</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="30"/>
-        <v>160</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="4"/>
-        <v>162</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="31"/>
-        <v>78732</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="32"/>
-        <v>31104</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="33"/>
-        <v>4976640</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="8"/>
-        <v>48.6</v>
-      </c>
-      <c r="M11" s="6" t="b">
-        <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="6" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1311,58 +1196,51 @@
         <v>3</v>
       </c>
       <c r="D12" s="5">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="29"/>
+        <v>192</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>114.5</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="3"/>
+        <v>39.5</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="30"/>
+        <v>461320.5</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="31"/>
+        <v>80923</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="32"/>
+        <v>15537216</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="8"/>
+        <v>19.181748148148149</v>
+      </c>
+      <c r="M12" s="6" t="b">
         <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="30"/>
-        <v>192</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="4"/>
-        <v>108.66666666666667</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="31"/>
-        <v>67808</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="32"/>
-        <v>30314.666666666668</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="33"/>
-        <v>5820416</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="8"/>
-        <v>56.84</v>
-      </c>
-      <c r="M12" s="6" t="b">
-        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N12" s="6" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>16</v>
       </c>
@@ -1373,64 +1251,51 @@
         <v>4</v>
       </c>
       <c r="D13" s="5">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="29"/>
+        <v>256</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>58.25</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="30"/>
+        <v>345364.25</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="31"/>
+        <v>59598</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="32"/>
+        <v>15257088</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="8"/>
+        <v>18.835911111111113</v>
+      </c>
+      <c r="M13" s="6" t="b">
         <f t="shared" si="34"/>
-        <v>4</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="30"/>
-        <v>256</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="31"/>
-        <v>48708</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="32"/>
-        <v>18448</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" si="33"/>
-        <v>4722688</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="8"/>
-        <v>46.12</v>
-      </c>
-      <c r="M13" s="6" t="b">
-        <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="6" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O13" s="13">
-        <v>1.7</v>
-      </c>
-      <c r="P13" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="13">
-        <f t="shared" si="14"/>
-        <v>3.7</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>8</v>
       </c>
@@ -1441,58 +1306,51 @@
         <v>4</v>
       </c>
       <c r="D14" s="5">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="29"/>
+        <v>256</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>114.5</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="3"/>
+        <v>39.5</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="30"/>
+        <v>348251.75</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="31"/>
+        <v>65523</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="32"/>
+        <v>16773888</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="8"/>
+        <v>20.708503703703705</v>
+      </c>
+      <c r="M14" s="6" t="b">
         <f t="shared" si="34"/>
-        <v>4</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="30"/>
-        <v>256</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="31"/>
-        <v>51168</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="32"/>
-        <v>23488</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="33"/>
-        <v>6012928</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="8"/>
-        <v>58.720000000000006</v>
-      </c>
-      <c r="M14" s="6" t="b">
-        <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="6" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>16</v>
       </c>
@@ -1500,121 +1358,107 @@
         <v>10</v>
       </c>
       <c r="C15" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" s="5">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="29"/>
+        <v>640</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>58.25</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="30"/>
+        <v>143528</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="31"/>
+        <v>35253</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="32"/>
+        <v>22561920</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="8"/>
+        <v>27.854222222222226</v>
+      </c>
+      <c r="M15" s="6" t="b">
         <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="30"/>
-        <v>320</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="4"/>
-        <v>162</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="31"/>
-        <v>43740</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="32"/>
-        <v>25056</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" si="33"/>
-        <v>8017920</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="8"/>
-        <v>78.3</v>
-      </c>
-      <c r="M15" s="6" t="b">
-        <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="6" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>10</v>
       </c>
       <c r="B16" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D16" s="5">
+        <f t="shared" si="33"/>
+        <v>15.625</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="29"/>
+        <v>1000</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="30"/>
+        <v>94208</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="31"/>
+        <v>27648</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="32"/>
+        <v>27648000</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="8"/>
+        <v>34.133333333333333</v>
+      </c>
+      <c r="M16" s="6" t="b">
         <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="30"/>
-        <v>320</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="31"/>
-        <v>41328</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="32"/>
-        <v>19728</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="33"/>
-        <v>6312960</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="8"/>
-        <v>61.650000000000006</v>
-      </c>
-      <c r="M16" s="6" t="b">
-        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N16" s="6" t="b">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1624,7 +1468,7 @@
         <v>64</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -1632,10 +1476,10 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1652,11 +1496,11 @@
         <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3">
         <f>$B$20*B24</f>
-        <v>400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,11 +1508,11 @@
         <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:C26" si="36">$B$20*B25</f>
-        <v>80</v>
+        <f t="shared" ref="C25:C26" si="35">$B$20*B25</f>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,11 +1520,11 @@
         <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="36"/>
-        <v>320</v>
+        <f t="shared" si="35"/>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,7 +1533,7 @@
       </c>
       <c r="C27" s="3">
         <f>C24*C25*C26</f>
-        <v>10240000</v>
+        <v>81000000</v>
       </c>
     </row>
   </sheetData>
@@ -1712,30 +1556,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -1752,13 +1596,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>2</v>
@@ -1776,22 +1620,10 @@
         <v>17</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -1811,31 +1643,31 @@
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F16" si="2">($C$24/A2)+2</f>
-        <v>142</v>
+        <v>302</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" ref="G2:G16" si="3">($C$25/B2)+2</f>
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="H2" s="5">
         <f t="shared" ref="H2:H16" si="4">($C$26/C2)+2</f>
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I16" si="5">F2*G2*H2</f>
-        <v>1062160</v>
+        <v>6977408</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" ref="J2:J16" si="6">4*F2*G2+4*G2*H2+4*F2*H2</f>
-        <v>151472</v>
+        <v>459648</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" ref="K2:K16" si="7">J2*E2</f>
-        <v>1817664</v>
+        <v>5515776</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" ref="L2:L16" si="8">K2/$C$27*100</f>
-        <v>15.333657272432783</v>
+        <v>6.8096000000000005</v>
       </c>
       <c r="M2" s="6" t="b">
         <f>IF((F2-FLOOR(F2,1))=0,IF((G2-FLOOR(G2,1))=0,IF((H2-FLOOR(H2,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -1845,21 +1677,8 @@
         <f>IF(($D2-FLOOR($D2,1))=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="O2" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="P2" s="13">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="13">
-        <f>O2+P2</f>
-        <v>50.25</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>6</v>
       </c>
@@ -1879,31 +1698,31 @@
       </c>
       <c r="F3" s="5">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="5"/>
-        <v>538560</v>
+        <v>3511808</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" si="6"/>
-        <v>91552</v>
+        <v>277248</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" si="7"/>
-        <v>2197248</v>
+        <v>6653952</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="8"/>
-        <v>18.535795270489146</v>
+        <v>8.2147555555555556</v>
       </c>
       <c r="M3" s="6" t="b">
         <f>IF((F3-FLOOR(F3,1))=0,IF((G3-FLOOR(G3,1))=0,IF((H3-FLOOR(H3,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -1913,21 +1732,8 @@
         <f t="shared" ref="N3:N16" si="9">IF(($D3-FLOOR($D3,1))=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="O3" s="13">
-        <v>0.66</v>
-      </c>
-      <c r="P3" s="13">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="13">
-        <f t="shared" ref="Q3:Q16" si="10">O3+P3</f>
-        <v>40.659999999999997</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>6</v>
       </c>
@@ -1947,55 +1753,42 @@
       </c>
       <c r="F4" s="5">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="5"/>
-        <v>367200</v>
+        <v>2356608</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" si="6"/>
-        <v>78000</v>
+        <v>216448</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="7"/>
-        <v>2808000</v>
+        <v>7792128</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" si="8"/>
-        <v>23.688046647230323</v>
+        <v>9.6199111111111115</v>
       </c>
       <c r="M4" s="6" t="b">
-        <f t="shared" ref="M4:M6" si="11">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <f t="shared" ref="M4:M6" si="10">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="N4" s="6" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O4" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="P4" s="13">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="13">
-        <f t="shared" si="10"/>
-        <v>31.4</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>6</v>
       </c>
@@ -2015,49 +1808,42 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="4"/>
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="5"/>
-        <v>131328</v>
+        <v>806208</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="6"/>
-        <v>44736</v>
+        <v>114848</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="7"/>
-        <v>4831488</v>
+        <v>12403584</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="8"/>
-        <v>40.758017492711367</v>
+        <v>15.313066666666666</v>
       </c>
       <c r="M5" s="6" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N5" s="6" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2077,49 +1863,42 @@
       </c>
       <c r="F6" s="5">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="5"/>
-        <v>418370</v>
+        <v>2656808</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="6"/>
-        <v>98244</v>
+        <v>254748</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="7"/>
-        <v>3143808</v>
+        <v>8151936</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="8"/>
-        <v>26.52089407191448</v>
+        <v>10.064118518518518</v>
       </c>
       <c r="M6" s="6" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N6" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2139,31 +1918,31 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="5"/>
-        <v>211646</v>
+        <v>1345883</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="6"/>
-        <v>54564</v>
+        <v>163548</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="7"/>
-        <v>3492096</v>
+        <v>10467072</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="8"/>
-        <v>29.459021703919664</v>
+        <v>12.922311111111112</v>
       </c>
       <c r="M7" s="6" t="b">
         <f>IF((F7-FLOOR(F7,1))=0,IF((G7-FLOOR(G7,1))=0,IF((H7-FLOOR(H7,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -2173,15 +1952,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -2201,49 +1973,42 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="2"/>
-        <v>54.5</v>
+        <v>114.5</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="5"/>
-        <v>107801</v>
+        <v>678870.5</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="6"/>
-        <v>31674</v>
+        <v>94248</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="7"/>
-        <v>4054272</v>
+        <v>12063744</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="8"/>
-        <v>34.201490119857468</v>
+        <v>14.89351111111111</v>
       </c>
       <c r="M8" s="6" t="b">
-        <f t="shared" ref="M8:M16" si="12">IF((F8-FLOOR(F8,1))=0,IF((G8-FLOOR(G8,1))=0,IF((H8-FLOOR(H8,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <f t="shared" ref="M8:M16" si="11">IF((F8-FLOOR(F8,1))=0,IF((G8-FLOOR(G8,1))=0,IF((H8-FLOOR(H8,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N8" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2263,49 +2028,42 @@
       </c>
       <c r="F9" s="5">
         <f t="shared" si="2"/>
-        <v>54.5</v>
+        <v>114.5</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="3"/>
-        <v>18.8</v>
+        <v>62</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="5"/>
-        <v>88115.6</v>
+        <v>546623</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="6"/>
-        <v>29313.599999999999</v>
+        <v>82758</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="7"/>
-        <v>4690176</v>
+        <v>13241280</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="8"/>
-        <v>39.565921606737938</v>
+        <v>16.347259259259257</v>
       </c>
       <c r="M9" s="6" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N9" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -2325,49 +2083,42 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="5"/>
-        <v>87032</v>
+        <v>545468</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="6"/>
-        <v>27096</v>
+        <v>80388</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="7"/>
-        <v>4335360</v>
+        <v>12862080</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="8"/>
-        <v>36.572724327826364</v>
+        <v>15.879111111111111</v>
       </c>
       <c r="M10" s="6" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N10" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>16</v>
       </c>
@@ -2387,49 +2138,42 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
-        <v>28.25</v>
+        <v>58.25</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>18.8</v>
+        <v>62</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="5"/>
-        <v>90287</v>
+        <v>548948</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="6"/>
-        <v>34118.400000000001</v>
+        <v>87558</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" si="7"/>
-        <v>5458944</v>
+        <v>14009280</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="8"/>
-        <v>46.051182377712991</v>
+        <v>17.295407407407406</v>
       </c>
       <c r="M11" s="6" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N11" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -2449,49 +2193,42 @@
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
-        <v>54.5</v>
+        <v>114.5</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>39.5</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="4"/>
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="5"/>
-        <v>77662.5</v>
+        <v>461320.5</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="6"/>
-        <v>33277</v>
+        <v>80923</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" si="7"/>
-        <v>6389184</v>
+        <v>15537216</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="8"/>
-        <v>53.898607061872369</v>
+        <v>19.181748148148149</v>
       </c>
       <c r="M12" s="6" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N12" s="6" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>16</v>
       </c>
@@ -2511,49 +2248,42 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="2"/>
-        <v>28.25</v>
+        <v>58.25</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="5"/>
-        <v>55878.5</v>
+        <v>345364.25</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="6"/>
-        <v>20229</v>
+        <v>59598</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" si="7"/>
-        <v>5178624</v>
+        <v>15257088</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="8"/>
-        <v>43.686426951733075</v>
+        <v>18.835911111111113</v>
       </c>
       <c r="M13" s="6" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N13" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>8</v>
       </c>
@@ -2573,49 +2303,42 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" si="2"/>
-        <v>54.5</v>
+        <v>114.5</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>39.5</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="5"/>
-        <v>58587.5</v>
+        <v>348251.75</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="6"/>
-        <v>25773</v>
+        <v>65523</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" si="7"/>
-        <v>6597888</v>
+        <v>16773888</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="8"/>
-        <v>55.659216067379333</v>
+        <v>20.708503703703705</v>
       </c>
       <c r="M14" s="6" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N14" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>16</v>
       </c>
@@ -2635,109 +2358,98 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" si="2"/>
-        <v>28.25</v>
+        <v>58.25</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="3"/>
-        <v>10.4</v>
+        <v>32</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="5"/>
-        <v>49946</v>
+        <v>283328</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="6"/>
-        <v>27457.200000000001</v>
+        <v>62328</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="7"/>
-        <v>8786304</v>
+        <v>19944960</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="8"/>
-        <v>74.120505344995138</v>
+        <v>24.623407407407409</v>
       </c>
       <c r="M15" s="6" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N15" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
+        <v>72</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>864</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="5"/>
-        <v>47300</v>
+        <v>108108</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="6"/>
-        <v>21636</v>
+        <v>29948</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="7"/>
-        <v>6923520</v>
+        <v>25875072</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="8"/>
-        <v>58.406219630709423</v>
+        <v>31.944533333333336</v>
       </c>
       <c r="M16" s="6" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="N16" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -2747,7 +2459,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -2755,10 +2467,10 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2775,11 +2487,11 @@
         <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3">
         <f>$B$20*B24</f>
-        <v>420</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2787,11 +2499,11 @@
         <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:C26" si="13">$B$20*B25</f>
-        <v>84</v>
+        <f t="shared" ref="C25:C26" si="12">$B$20*B25</f>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2799,11 +2511,11 @@
         <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="13"/>
-        <v>336</v>
+        <f t="shared" si="12"/>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,7 +2524,7 @@
       </c>
       <c r="C27" s="3">
         <f>C24*C25*C26</f>
-        <v>11854080</v>
+        <v>81000000</v>
       </c>
     </row>
   </sheetData>
@@ -2835,30 +2547,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -2875,19 +2587,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>3</v>
+      <c r="J1" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>16</v>
@@ -2899,24 +2611,12 @@
         <v>17</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
@@ -2925,40 +2625,40 @@
         <v>2</v>
       </c>
       <c r="D2" s="5">
-        <f>E2/$B$5</f>
+        <f t="shared" ref="D2:D16" si="0">E2/$B$19</f>
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2" si="0">A2*B2*C2</f>
-        <v>8</v>
+        <f t="shared" ref="E2:E16" si="1">A2*B2*C2</f>
+        <v>24</v>
       </c>
       <c r="F2" s="5">
-        <f>($C$10/A2)+2</f>
-        <v>152</v>
+        <f t="shared" ref="F2:F16" si="2">($C$24/A2)+2</f>
+        <v>252</v>
       </c>
       <c r="G2" s="5">
-        <f>($C$11/B2)+2</f>
-        <v>32</v>
+        <f t="shared" ref="G2:G16" si="3">($C$25/B2)+2</f>
+        <v>252</v>
       </c>
       <c r="H2" s="5">
-        <f>($C$12/C2)+2</f>
-        <v>122</v>
+        <f t="shared" ref="H2:H16" si="4">($C$26/C2)+2</f>
+        <v>252</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2" si="1">F2*G2*H2</f>
-        <v>593408</v>
+        <f t="shared" ref="I2:I16" si="5">F2*G2*H2</f>
+        <v>16003008</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2" si="2">4*F2*G2+4*G2*H2+4*F2*H2</f>
-        <v>109248</v>
+        <f t="shared" ref="J2:J16" si="6">4*F2*G2+4*G2*H2+4*F2*H2</f>
+        <v>762048</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" ref="K2" si="3">J2*E2</f>
-        <v>873984</v>
+        <f t="shared" ref="K2:K16" si="7">J2*E2</f>
+        <v>18289152</v>
       </c>
       <c r="L2" s="5">
-        <f>K2/$C$13*100</f>
-        <v>20.231111111111112</v>
+        <f t="shared" ref="L2:L16" si="8">K2/$C$27*100</f>
+        <v>4.8771072000000002</v>
       </c>
       <c r="M2" s="6" t="b">
         <f>IF((F2-FLOOR(F2,1))=0,IF((G2-FLOOR(G2,1))=0,IF((H2-FLOOR(H2,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -2968,256 +2668,8 @@
         <f>IF(($D2-FLOOR($D2,1))=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="O2" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="P2" s="13">
-        <v>6.8</v>
-      </c>
-      <c r="Q2" s="13">
-        <f>O2+P2</f>
-        <v>6.92</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <f>$B$6*B10</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" ref="C11:C12" si="4">$B$6*B11</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3">
-        <f>C10*C11*C12</f>
-        <v>4320000</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:N2">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>IF($M2,IF($N2,TRUE,FALSE),FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>IF($M2=TRUE,TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="12"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <f t="shared" ref="D2:D16" si="0">E2/$B$19</f>
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="5">
-        <f t="shared" ref="E2:E16" si="1">A2*B2*C2</f>
-        <v>12</v>
-      </c>
-      <c r="F2" s="5">
-        <f t="shared" ref="F2:F16" si="2">($C$24/A2)+2</f>
-        <v>68.666666666666671</v>
-      </c>
-      <c r="G2" s="5">
-        <f t="shared" ref="G2:G16" si="3">($C$25/B2)+2</f>
-        <v>42</v>
-      </c>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2:H16" si="4">($C$26/C2)+2</f>
-        <v>82</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:I16" si="5">F2*G2*H2</f>
-        <v>236488</v>
-      </c>
-      <c r="J2" s="5">
-        <f t="shared" ref="J2:J16" si="6">4*F2*G2+4*G2*H2+4*F2*H2</f>
-        <v>47834.666666666672</v>
-      </c>
-      <c r="K2" s="5">
-        <f t="shared" ref="K2:K16" si="7">J2*E2</f>
-        <v>574016</v>
-      </c>
-      <c r="L2" s="5">
-        <f t="shared" ref="L2:L16" si="8">K2/$C$27*100</f>
-        <v>22.422499999999999</v>
-      </c>
-      <c r="M2" s="6" t="b">
-        <f>IF((F2-FLOOR(F2,1))=0,IF((G2-FLOOR(G2,1))=0,IF((H2-FLOOR(H2,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="6" t="b">
-        <f>IF(($D2-FLOOR($D2,1))=0,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13">
-        <f>O2+P2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>12</v>
       </c>
@@ -3237,173 +2689,152 @@
       </c>
       <c r="F3" s="5">
         <f t="shared" si="2"/>
-        <v>18.666666666666668</v>
+        <v>127</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="5"/>
-        <v>17248</v>
+        <v>2048383</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" si="6"/>
-        <v>8474.6666666666679</v>
+        <v>193548</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" si="7"/>
-        <v>1627136.0000000002</v>
+        <v>37161216</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="8"/>
-        <v>63.56</v>
+        <v>9.909657600000001</v>
       </c>
       <c r="M3" s="6" t="b">
         <f>IF((F3-FLOOR(F3,1))=0,IF((G3-FLOOR(G3,1))=0,IF((H3-FLOOR(H3,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="6" t="b">
         <f t="shared" ref="N3:N16" si="9">IF(($D3-FLOOR($D3,1))=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13">
-        <f t="shared" ref="Q3:Q16" si="10">O3+P3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>12</v>
       </c>
       <c r="B4" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>432</v>
+        <v>300</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="2"/>
-        <v>18.666666666666668</v>
+        <v>127</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="3"/>
-        <v>15.333333333333334</v>
+        <v>102</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="4"/>
-        <v>28.666666666666668</v>
+        <v>102</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="5"/>
-        <v>8205.0370370370383</v>
+        <v>1321308</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" si="6"/>
-        <v>5043.5555555555566</v>
+        <v>145248</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="7"/>
-        <v>2178816.0000000005</v>
+        <v>43574400</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" si="8"/>
-        <v>85.110000000000014</v>
+        <v>11.61984</v>
       </c>
       <c r="M4" s="6" t="b">
-        <f t="shared" ref="M4:M6" si="11">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>0</v>
+        <f t="shared" ref="M4:M6" si="10">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <v>1</v>
       </c>
       <c r="N4" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>1200</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="4"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="5"/>
-        <v>351288</v>
+        <v>343408</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="6"/>
-        <v>64368</v>
+        <v>63648</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="7"/>
-        <v>514944</v>
+        <v>76377600</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="8"/>
-        <v>20.114999999999998</v>
+        <v>20.367360000000001</v>
       </c>
       <c r="M5" s="6" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N5" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>8</v>
       </c>
@@ -3423,49 +2854,42 @@
       </c>
       <c r="F6" s="5">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>189.5</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>64.5</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>64.5</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="5"/>
-        <v>7128</v>
+        <v>788367.375</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="6"/>
-        <v>4728</v>
+        <v>114423</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="7"/>
-        <v>2420736</v>
+        <v>58584576</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="8"/>
-        <v>94.56</v>
+        <v>15.6225536</v>
       </c>
       <c r="M6" s="6" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="N6" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -3485,31 +2909,31 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>377</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="5"/>
-        <v>48048</v>
+        <v>6080633</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="6"/>
-        <v>17008</v>
+        <v>447548</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="7"/>
-        <v>1088512</v>
+        <v>28643072</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="8"/>
-        <v>42.52</v>
+        <v>7.6381525333333338</v>
       </c>
       <c r="M7" s="6" t="b">
         <f>IF((F7-FLOOR(F7,1))=0,IF((G7-FLOOR(G7,1))=0,IF((H7-FLOOR(H7,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -3519,15 +2943,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -3547,49 +2964,42 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>189.5</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="5"/>
-        <v>24948</v>
+        <v>3056445.5</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="6"/>
-        <v>10608</v>
+        <v>257048</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="7"/>
-        <v>1357824</v>
+        <v>32902144</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="8"/>
-        <v>53.04</v>
+        <v>8.773905066666666</v>
       </c>
       <c r="M8" s="6" t="b">
-        <f t="shared" ref="M8:M16" si="12">IF((F8-FLOOR(F8,1))=0,IF((G8-FLOOR(G8,1))=0,IF((H8-FLOOR(H8,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>1</v>
+        <f t="shared" ref="M8:M16" si="11">IF((F8-FLOOR(F8,1))=0,IF((G8-FLOOR(G8,1))=0,IF((H8-FLOOR(H8,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="N8" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3609,49 +3019,42 @@
       </c>
       <c r="F9" s="5">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>189.5</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="5"/>
-        <v>20412</v>
+        <v>2454783</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="6"/>
-        <v>9504</v>
+        <v>225398</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="7"/>
-        <v>1520640</v>
+        <v>36063680</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="8"/>
-        <v>59.4</v>
+        <v>9.6169813333333334</v>
       </c>
       <c r="M9" s="6" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="N9" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -3671,49 +3074,42 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="5"/>
-        <v>20328</v>
+        <v>2451608</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="6"/>
-        <v>9328</v>
+        <v>218948</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="7"/>
-        <v>1492480</v>
+        <v>35031680</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="8"/>
-        <v>58.3</v>
+        <v>9.3417813333333335</v>
       </c>
       <c r="M10" s="6" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N10" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>16</v>
       </c>
@@ -3733,49 +3129,42 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
-        <v>14.5</v>
+        <v>95.75</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="4"/>
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="5"/>
-        <v>21402</v>
+        <v>2461158</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="6"/>
-        <v>11704</v>
+        <v>238398</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" si="7"/>
-        <v>1872640</v>
+        <v>38143680</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="8"/>
-        <v>73.150000000000006</v>
+        <v>10.171647999999999</v>
       </c>
       <c r="M11" s="6" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N11" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -3795,49 +3184,42 @@
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>189.5</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>64.5</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="4"/>
-        <v>55.333333333333336</v>
+        <v>168.66666666666666</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="5"/>
-        <v>17928</v>
+        <v>2061570.5</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="6"/>
-        <v>9928</v>
+        <v>220256.33333333331</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" si="7"/>
-        <v>1906176</v>
+        <v>42289216</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="8"/>
-        <v>74.460000000000008</v>
+        <v>11.277124266666666</v>
       </c>
       <c r="M12" s="6" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N12" s="6" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>16</v>
       </c>
@@ -3857,49 +3239,42 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="2"/>
-        <v>14.5</v>
+        <v>95.75</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="5"/>
-        <v>13398</v>
+        <v>1544351.75</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="6"/>
-        <v>7408</v>
+        <v>161798</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" si="7"/>
-        <v>1896448</v>
+        <v>41420288</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="8"/>
-        <v>74.08</v>
+        <v>11.045410133333334</v>
       </c>
       <c r="M13" s="6" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N13" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>8</v>
       </c>
@@ -3919,49 +3294,42 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>189.5</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>64.5</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="5"/>
-        <v>13608</v>
+        <v>1552289.25</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="6"/>
-        <v>7848</v>
+        <v>177923</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" si="7"/>
-        <v>2009088</v>
+        <v>45548288</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="8"/>
-        <v>78.48</v>
+        <v>12.146210133333334</v>
       </c>
       <c r="M14" s="6" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="N14" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>16</v>
       </c>
@@ -3981,49 +3349,42 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" si="2"/>
-        <v>14.5</v>
+        <v>95.75</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="4"/>
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="5"/>
-        <v>11890</v>
+        <v>1254708</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="6"/>
-        <v>8616</v>
+        <v>168848</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="7"/>
-        <v>2757120</v>
+        <v>54031360</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="8"/>
-        <v>107.69999999999999</v>
+        <v>14.408362666666665</v>
       </c>
       <c r="M15" s="6" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N15" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>10</v>
       </c>
@@ -4043,47 +3404,40 @@
       </c>
       <c r="F16" s="5">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>64.5</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="5"/>
-        <v>11088</v>
+        <v>1245108</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="6"/>
-        <v>6768</v>
+        <v>149198</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="7"/>
-        <v>2165760</v>
+        <v>47743360</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="8"/>
-        <v>84.6</v>
+        <v>12.731562666666665</v>
       </c>
       <c r="M16" s="6" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="N16" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -4093,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -4101,10 +3455,10 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4121,11 +3475,11 @@
         <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3">
         <f>$B$20*B24</f>
-        <v>200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4133,11 +3487,11 @@
         <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:C26" si="13">$B$20*B25</f>
-        <v>80</v>
+        <f t="shared" ref="C25:C26" si="12">$B$20*B25</f>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,11 +3499,11 @@
         <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="13"/>
-        <v>160</v>
+        <f t="shared" si="12"/>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4158,7 +3512,7 @@
       </c>
       <c r="C27" s="3">
         <f>C24*C25*C26</f>
-        <v>2560000</v>
+        <v>375000000</v>
       </c>
     </row>
   </sheetData>
@@ -4179,32 +3533,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -4221,19 +3574,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>16</v>
@@ -4245,20 +3598,10 @@
         <v>17</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="12"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>4</v>
       </c>
@@ -4269,40 +3612,40 @@
         <v>2</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:D16" si="0">E2/$B$19</f>
+        <f>E2/$B$7</f>
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:E16" si="1">A2*B2*C2</f>
+        <f t="shared" ref="E2:E4" si="0">A2*B2*C2</f>
         <v>16</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F16" si="2">($C$24/A2)+2</f>
-        <v>102</v>
+        <f>($C$12/A2)+2</f>
+        <v>227</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G16" si="3">($C$25/B2)+2</f>
-        <v>42</v>
+        <f>($C$13/B2)+2</f>
+        <v>152</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H16" si="4">($C$26/C2)+2</f>
-        <v>162</v>
+        <f>($C$14/C2)+2</f>
+        <v>152</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I16" si="5">F2*G2*H2</f>
-        <v>694008</v>
+        <f t="shared" ref="I2:I4" si="1">F2*G2*H2</f>
+        <v>5244608</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J16" si="6">4*F2*G2+4*G2*H2+4*F2*H2</f>
-        <v>110448</v>
+        <f t="shared" ref="J2:J4" si="2">4*F2*G2+4*G2*H2+4*F2*H2</f>
+        <v>368448</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" ref="K2:K16" si="7">J2*E2</f>
-        <v>1767168</v>
+        <f t="shared" ref="K2:K4" si="3">J2*E2</f>
+        <v>5895168</v>
       </c>
       <c r="L2" s="5">
-        <f t="shared" ref="L2:L16" si="8">K2/$C$27*100</f>
-        <v>17.2575</v>
+        <f>K2/$C$15*100</f>
+        <v>7.2779851851851847</v>
       </c>
       <c r="M2" s="6" t="b">
         <f>IF((F2-FLOOR(F2,1))=0,IF((G2-FLOOR(G2,1))=0,IF((H2-FLOOR(H2,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -4312,15 +3655,8 @@
         <f>IF(($D2-FLOOR($D2,1))=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13">
-        <f>O2+P2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4331,58 +3667,51 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
+        <f>E3/$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5">
+        <f>($C$12/A3)+2</f>
+        <v>452</v>
+      </c>
+      <c r="G3" s="5">
+        <f>($C$13/B3)+2</f>
+        <v>77</v>
+      </c>
+      <c r="H3" s="5">
+        <f>($C$14/C3)+2</f>
+        <v>152</v>
+      </c>
+      <c r="I3" s="5">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" si="4"/>
-        <v>162</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="5"/>
-        <v>719928</v>
+        <v>5290208</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="6"/>
-        <v>162928</v>
+        <f t="shared" si="2"/>
+        <v>460848</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="7"/>
-        <v>2606848</v>
+        <f t="shared" si="3"/>
+        <v>7373568</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" si="8"/>
-        <v>25.4575</v>
+        <f>K3/$C$15*100</f>
+        <v>9.1031703703703695</v>
       </c>
       <c r="M3" s="6" t="b">
         <f>IF((F3-FLOOR(F3,1))=0,IF((G3-FLOOR(G3,1))=0,IF((H3-FLOOR(H3,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="N3" s="6" t="b">
-        <f t="shared" ref="N3:N16" si="9">IF(($D3-FLOOR($D3,1))=0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13">
-        <f t="shared" ref="Q3:Q16" si="10">O3+P3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N3:N4" si="4">IF(($D3-FLOOR($D3,1))=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4393,879 +3722,128 @@
         <v>4</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" si="0"/>
+        <f>E4/$B$7</f>
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="5"/>
-        <v>695688</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="6"/>
-        <v>113968</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="7"/>
-        <v>1823488</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="8"/>
-        <v>17.807500000000001</v>
-      </c>
-      <c r="M4" s="6" t="b">
-        <f t="shared" ref="M4:M6" si="11">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="6" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="4"/>
-        <v>162</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="5"/>
-        <v>1374408</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="6"/>
-        <v>192048</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="7"/>
-        <v>1536384</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="8"/>
-        <v>15.003749999999998</v>
-      </c>
-      <c r="M5" s="6" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N5" s="6" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>512</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="5"/>
-        <v>26208</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="6"/>
-        <v>13248</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="7"/>
-        <v>6782976</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="8"/>
-        <v>66.239999999999995</v>
-      </c>
-      <c r="M6" s="6" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="6" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="5"/>
-        <v>184008</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="6"/>
-        <v>49648</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="7"/>
-        <v>3177472</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="8"/>
-        <v>31.03</v>
-      </c>
-      <c r="M7" s="6" t="b">
-        <f>IF((F7-FLOOR(F7,1))=0,IF((G7-FLOOR(G7,1))=0,IF((H7-FLOOR(H7,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="N7" s="6" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="5"/>
-        <v>93808</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="6"/>
-        <v>28848</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="7"/>
-        <v>3692544</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="8"/>
-        <v>36.059999999999995</v>
-      </c>
-      <c r="M8" s="6" t="b">
-        <f t="shared" ref="M8:M16" si="12">IF((F8-FLOOR(F8,1))=0,IF((G8-FLOOR(G8,1))=0,IF((H8-FLOOR(H8,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="N8" s="6" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="5"/>
-        <v>76752</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="6"/>
-        <v>26704</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="7"/>
-        <v>4272640</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="8"/>
-        <v>41.725000000000001</v>
-      </c>
-      <c r="M9" s="6" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N9" s="6" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="5"/>
-        <v>75768</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="6"/>
-        <v>24688</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="7"/>
-        <v>3950080</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="8"/>
-        <v>38.574999999999996</v>
-      </c>
-      <c r="M10" s="6" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N10" s="6" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="4"/>
-        <v>162</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="5"/>
-        <v>78732</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="6"/>
-        <v>31104</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="7"/>
-        <v>4976640</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="8"/>
-        <v>48.6</v>
-      </c>
-      <c r="M11" s="6" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="6" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="4"/>
-        <v>108.66666666666667</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="5"/>
-        <v>67808</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="6"/>
-        <v>30314.666666666668</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="7"/>
-        <v>5820416</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="8"/>
-        <v>56.84</v>
-      </c>
-      <c r="M12" s="6" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="6" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F4" s="5">
+        <f>($C$12/A4)+2</f>
+        <v>452</v>
+      </c>
+      <c r="G4" s="5">
+        <f>($C$13/B4)+2</f>
+        <v>152</v>
+      </c>
+      <c r="H4" s="5">
+        <f>($C$14/C4)+2</f>
+        <v>77</v>
+      </c>
+      <c r="I4" s="5">
         <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="5"/>
-        <v>48708</v>
-      </c>
-      <c r="J13" s="5">
+        <v>5290208</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="2"/>
+        <v>460848</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="3"/>
+        <v>7373568</v>
+      </c>
+      <c r="L4" s="5">
+        <f>K4/$C$15*100</f>
+        <v>9.1031703703703695</v>
+      </c>
+      <c r="M4" s="6" t="b">
+        <f t="shared" ref="M4" si="5">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <f>$B$8*B12</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ref="C13:C14" si="6">$B$8*B13</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
         <f t="shared" si="6"/>
-        <v>18448</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" si="7"/>
-        <v>4722688</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="8"/>
-        <v>46.12</v>
-      </c>
-      <c r="M13" s="6" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="6" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="5"/>
-        <v>51168</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="6"/>
-        <v>23488</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="7"/>
-        <v>6012928</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="8"/>
-        <v>58.720000000000006</v>
-      </c>
-      <c r="M14" s="6" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="6" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="4"/>
-        <v>162</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="5"/>
-        <v>43740</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="6"/>
-        <v>25056</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" si="7"/>
-        <v>8017920</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="8"/>
-        <v>78.3</v>
-      </c>
-      <c r="M15" s="6" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="6" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="5"/>
-        <v>41328</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="6"/>
-        <v>19728</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="7"/>
-        <v>6312960</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="8"/>
-        <v>61.650000000000006</v>
-      </c>
-      <c r="M16" s="6" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="6" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>40</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3">
-        <f>$B$20*B24</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" ref="C25:C26" si="13">$B$20*B25</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="1">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" si="13"/>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="3">
-        <f>C24*C25*C26</f>
-        <v>10240000</v>
+      <c r="C15" s="3">
+        <f>C12*C13*C14</f>
+        <v>81000000</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:N16">
+  <conditionalFormatting sqref="A2:N4">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF($M2,IF($N2,TRUE,FALSE),FALSE)</formula>
     </cfRule>
@@ -5280,4 +3858,221 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <f>E2/$B$5</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" ref="E2" si="0">A2*B2*C2</f>
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
+        <f>($C$10/A2)+2</f>
+        <v>152</v>
+      </c>
+      <c r="G2" s="5">
+        <f>($C$11/B2)+2</f>
+        <v>52</v>
+      </c>
+      <c r="H2" s="5">
+        <f>($C$12/C2)+2</f>
+        <v>52</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2" si="1">F2*G2*H2</f>
+        <v>411008</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" ref="J2" si="2">4*F2*G2+4*G2*H2+4*F2*H2</f>
+        <v>74048</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" ref="K2" si="3">J2*E2</f>
+        <v>592384</v>
+      </c>
+      <c r="L2" s="5">
+        <f>K2/$C$13*100</f>
+        <v>19.746133333333333</v>
+      </c>
+      <c r="M2" s="6" t="b">
+        <f>IF((F2-FLOOR(F2,1))=0,IF((G2-FLOOR(G2,1))=0,IF((H2-FLOOR(H2,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="6" t="b">
+        <f>IF(($D2-FLOOR($D2,1))=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <f>$B$6*B10</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:C12" si="4">$B$6*B11</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <f>C10*C11*C12</f>
+        <v>3000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:N2">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>IF($M2,IF($N2,TRUE,FALSE),FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>IF($M2=TRUE,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/LatBo/tools/SizingGuide.xlsx
+++ b/LatBo/tools/SizingGuide.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Dropbox (Personal)\0. Work\3. LBM\C++ Projects\LatBo\LatBo\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" tabRatio="323" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" tabRatio="573"/>
   </bookViews>
   <sheets>
-    <sheet name="Bulldozer CSF" sheetId="1" r:id="rId1"/>
-    <sheet name="Intel CSF" sheetId="2" r:id="rId2"/>
-    <sheet name="Archer" sheetId="5" r:id="rId3"/>
-    <sheet name="Flair2" sheetId="7" r:id="rId4"/>
-    <sheet name="Laptop" sheetId="4" r:id="rId5"/>
+    <sheet name="Archer" sheetId="11" r:id="rId1"/>
+    <sheet name="Bulldozer CSF" sheetId="12" r:id="rId2"/>
+    <sheet name="Intel CSF" sheetId="10" r:id="rId3"/>
+    <sheet name="MC CSF" sheetId="13" r:id="rId4"/>
+    <sheet name="Desktop" sheetId="7" r:id="rId5"/>
+    <sheet name="Laptop" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="49">
   <si>
     <t>No of Nodes</t>
   </si>
@@ -108,13 +109,82 @@
 /Core</t>
   </si>
   <si>
-    <t>Try</t>
+    <t>Grids = 0</t>
+  </si>
+  <si>
+    <t>startx</t>
+  </si>
+  <si>
+    <t>starty</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>refXstart</t>
+  </si>
+  <si>
+    <t>refXend</t>
+  </si>
+  <si>
+    <t>refYstart</t>
+  </si>
+  <si>
+    <t>refYend</t>
+  </si>
+  <si>
+    <t>Grids = 1</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Grids = 2</t>
+  </si>
+  <si>
+    <t>refXstart1</t>
+  </si>
+  <si>
+    <t>refXend2</t>
+  </si>
+  <si>
+    <t>refYstart1</t>
+  </si>
+  <si>
+    <t>refXend1</t>
+  </si>
+  <si>
+    <t>refYend1</t>
+  </si>
+  <si>
+    <t>refXstart2</t>
+  </si>
+  <si>
+    <t>refYstart2</t>
+  </si>
+  <si>
+    <t>refYend2</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>2D Aerofoil Cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -142,7 +212,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -215,12 +291,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -380,6 +488,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -415,6 +540,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,31 +709,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="1022" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -619,8 +761,8 @@
       <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>3</v>
+      <c r="J1" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>16</v>
@@ -637,49 +779,49 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:D7" si="0">E2/$B$19</f>
-        <v>0.25</v>
+        <f t="shared" ref="D2:D16" si="0">E2/$B$19</f>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2" si="1">A2*B2*C2</f>
-        <v>16</v>
+        <f t="shared" ref="E2:E16" si="1">A2*B2*C2</f>
+        <v>24</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F16" si="2">($C$24/A2)+2</f>
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" ref="G2:G16" si="3">($C$25/B2)+2</f>
-        <v>152</v>
+        <v>377</v>
       </c>
       <c r="H2" s="5">
         <f t="shared" ref="H2:H16" si="4">($C$26/C2)+2</f>
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2" si="5">F2*G2*H2</f>
-        <v>5244608</v>
+        <f t="shared" ref="I2:I16" si="5">F2*G2*H2</f>
+        <v>285012</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2" si="6">4*F2*G2+4*G2*H2+4*F2*H2</f>
-        <v>368448</v>
+        <f t="shared" ref="J2:J16" si="6">4*F2*G2+4*G2*H2+4*F2*H2</f>
+        <v>387564</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" ref="K2" si="7">J2*E2</f>
-        <v>5895168</v>
+        <f t="shared" ref="K2:K16" si="7">J2*E2</f>
+        <v>9301536</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" ref="L2:L16" si="8">K2/$C$27*100</f>
-        <v>7.2779851851851847</v>
+        <v>413.40159999999997</v>
       </c>
       <c r="M2" s="6" t="b">
         <f>IF((F2-FLOOR(F2,1))=0,IF((G2-FLOOR(G2,1))=0,IF((H2-FLOOR(H2,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -687,140 +829,140 @@
       </c>
       <c r="N2" s="6" t="b">
         <f>IF(($D2-FLOOR($D2,1))=0,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" si="0"/>
-        <v>0.3125</v>
-      </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3" si="9">A3*B3*C3</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="2"/>
-        <v>452</v>
+        <v>127</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>377</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3" si="10">F3*G3*H3</f>
-        <v>4259648</v>
+        <f t="shared" si="5"/>
+        <v>143637</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3" si="11">4*F3*G3+4*G3*H3+4*F3*H3</f>
-        <v>424608</v>
+        <f t="shared" si="6"/>
+        <v>197564</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3" si="12">J3*E3</f>
-        <v>8492160</v>
+        <f t="shared" si="7"/>
+        <v>9483072</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="8"/>
-        <v>10.484148148148147</v>
+        <v>421.46986666666669</v>
       </c>
       <c r="M3" s="6" t="b">
         <f>IF((F3-FLOOR(F3,1))=0,IF((G3-FLOOR(G3,1))=0,IF((H3-FLOOR(H3,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="N3" s="6" t="b">
-        <f t="shared" ref="N3:N16" si="13">IF(($D3-FLOOR($D3,1))=0,TRUE,FALSE)</f>
-        <v>0</v>
+        <f t="shared" ref="N3:N16" si="9">IF(($D3-FLOOR($D3,1))=0,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4" si="14">A4*B4*C4</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="3"/>
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4" si="15">F4*G4*H4</f>
-        <v>4204928</v>
+        <f t="shared" si="5"/>
+        <v>96012</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4" si="16">4*F4*G4+4*G4*H4+4*F4*H4</f>
-        <v>313728</v>
+        <f t="shared" si="6"/>
+        <v>132564</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4" si="17">J4*E4</f>
-        <v>6274560</v>
+        <f t="shared" si="7"/>
+        <v>9544608</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" si="8"/>
-        <v>7.7463703703703697</v>
+        <v>424.20479999999998</v>
       </c>
       <c r="M4" s="6" t="b">
-        <f t="shared" ref="M4" si="18">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <f t="shared" ref="M4:M6" si="10">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="N4" s="6" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5" si="19">A5*B5*C5</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>452</v>
+        <v>127</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="3"/>
@@ -828,195 +970,195 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" ref="I5" si="20">F5*G5*H5</f>
-        <v>10443008</v>
+        <f t="shared" si="5"/>
+        <v>57912</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5" si="21">4*F5*G5+4*G5*H5+4*F5*H5</f>
-        <v>642048</v>
+        <f t="shared" si="6"/>
+        <v>80564</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" ref="K5" si="22">J5*E5</f>
-        <v>5136384</v>
+        <f t="shared" si="7"/>
+        <v>9667680</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="8"/>
-        <v>6.3412148148148146</v>
+        <v>429.67466666666667</v>
       </c>
       <c r="M5" s="6" t="b">
-        <f t="shared" ref="M5" si="23">IF((F5-FLOOR(F5,1))=0,IF((G5-FLOOR(G5,1))=0,IF((H5-FLOOR(H5,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N5" s="6" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" ref="E6" si="24">A6*B6*C6</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>480</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>2.125</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" ref="I6" si="25">F6*G6*H6</f>
-        <v>2656808</v>
+        <f t="shared" si="5"/>
+        <v>81502.25</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6" si="26">4*F6*G6+4*G6*H6+4*F6*H6</f>
-        <v>254748</v>
+        <f t="shared" si="6"/>
+        <v>157062.5</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" ref="K6" si="27">J6*E6</f>
-        <v>8151936</v>
+        <f t="shared" si="7"/>
+        <v>75390000</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="8"/>
-        <v>10.064118518518518</v>
+        <v>3350.666666666667</v>
       </c>
       <c r="M6" s="6" t="b">
-        <f t="shared" ref="M6" si="28">IF((F6-FLOOR(F6,1))=0,IF((G6-FLOOR(G6,1))=0,IF((H6-FLOOR(H6,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="N6" s="6" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ref="E7:E16" si="29">A7*B7*C7</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>1440</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>2.1</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" ref="I7:I16" si="30">F7*G7*H7</f>
-        <v>1345883</v>
+        <f t="shared" si="5"/>
+        <v>33870.9</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" ref="J7:J16" si="31">4*F7*G7+4*G7*H7+4*F7*H7</f>
-        <v>163548</v>
+        <f t="shared" si="6"/>
+        <v>66649.600000000006</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" ref="K7:K16" si="32">J7*E7</f>
-        <v>10467072</v>
+        <f t="shared" si="7"/>
+        <v>95975424.000000015</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="8"/>
-        <v>12.922311111111112</v>
+        <v>4265.5744000000004</v>
       </c>
       <c r="M7" s="6" t="b">
         <f>IF((F7-FLOOR(F7,1))=0,IF((G7-FLOOR(G7,1))=0,IF((H7-FLOOR(H7,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="6" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ref="D8:D16" si="33">E8/$B$19</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="29"/>
-        <v>128</v>
+        <f t="shared" si="1"/>
+        <v>240</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="2"/>
-        <v>114.5</v>
+        <v>127</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>2.5</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="30"/>
-        <v>678870.5</v>
+        <f t="shared" si="5"/>
+        <v>48260</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="31"/>
-        <v>94248</v>
+        <f t="shared" si="6"/>
+        <v>80006</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="32"/>
-        <v>12063744</v>
+        <f t="shared" si="7"/>
+        <v>19201440</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="8"/>
-        <v>14.89351111111111</v>
+        <v>853.39733333333334</v>
       </c>
       <c r="M8" s="6" t="b">
-        <f t="shared" ref="M8:M16" si="34">IF((F8-FLOOR(F8,1))=0,IF((G8-FLOOR(G8,1))=0,IF((H8-FLOOR(H8,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <f t="shared" ref="M8:M16" si="11">IF((F8-FLOOR(F8,1))=0,IF((G8-FLOOR(G8,1))=0,IF((H8-FLOOR(H8,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N8" s="6" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -1031,47 +1173,47 @@
         <v>4</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="33"/>
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="2"/>
-        <v>114.5</v>
+        <v>189.5</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>302</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>2.25</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="30"/>
-        <v>546623</v>
+        <f t="shared" si="5"/>
+        <v>128765.25</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="31"/>
-        <v>82758</v>
+        <f t="shared" si="6"/>
+        <v>233339.5</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="32"/>
-        <v>13241280</v>
+        <f t="shared" si="7"/>
+        <v>37334320</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="8"/>
-        <v>16.347259259259257</v>
+        <v>1659.3031111111109</v>
       </c>
       <c r="M9" s="6" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N9" s="6" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1086,47 +1228,47 @@
         <v>4</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="33"/>
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>2.25</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="30"/>
-        <v>545468</v>
+        <f t="shared" si="5"/>
+        <v>128934</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="31"/>
-        <v>80388</v>
+        <f t="shared" si="6"/>
+        <v>233977</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="32"/>
-        <v>12862080</v>
+        <f t="shared" si="7"/>
+        <v>37436320</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="8"/>
-        <v>15.879111111111111</v>
+        <v>1663.8364444444444</v>
       </c>
       <c r="M10" s="6" t="b">
-        <f t="shared" si="34"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="N10" s="6" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1141,47 +1283,47 @@
         <v>2</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="33"/>
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
-        <v>58.25</v>
+        <v>95.75</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>302</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>2.5</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="30"/>
-        <v>548948</v>
+        <f t="shared" si="5"/>
+        <v>72291.25</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="31"/>
-        <v>87558</v>
+        <f t="shared" si="6"/>
+        <v>119643.5</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="32"/>
-        <v>14009280</v>
+        <f t="shared" si="7"/>
+        <v>19142960</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="8"/>
-        <v>17.295407407407406</v>
+        <v>850.79822222222231</v>
       </c>
       <c r="M11" s="6" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N11" s="6" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1193,50 +1335,50 @@
         <v>8</v>
       </c>
       <c r="C12" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="33"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="29"/>
-        <v>192</v>
+        <f t="shared" si="1"/>
+        <v>384</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
-        <v>114.5</v>
+        <v>189.5</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="3"/>
-        <v>39.5</v>
+        <v>189.5</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="30"/>
-        <v>461320.5</v>
+        <f t="shared" si="5"/>
+        <v>77805.541666666657</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="31"/>
-        <v>80923</v>
+        <f t="shared" si="6"/>
+        <v>146925.66666666669</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="32"/>
-        <v>15537216</v>
+        <f t="shared" si="7"/>
+        <v>56419456.000000007</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="8"/>
-        <v>19.181748148148149</v>
+        <v>2507.5313777777778</v>
       </c>
       <c r="M12" s="6" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N12" s="6" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -1251,48 +1393,48 @@
         <v>4</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="33"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>10.666666666666666</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="1"/>
         <v>256</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="2"/>
-        <v>58.25</v>
+        <v>95.75</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>2.25</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="30"/>
-        <v>345364.25</v>
+        <f t="shared" si="5"/>
+        <v>81219.9375</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="31"/>
-        <v>59598</v>
+        <f t="shared" si="6"/>
+        <v>148645.75</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="32"/>
-        <v>15257088</v>
+        <f t="shared" si="7"/>
+        <v>38053312</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="8"/>
-        <v>18.835911111111113</v>
+        <v>1691.2583111111112</v>
       </c>
       <c r="M13" s="6" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N13" s="6" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1306,48 +1448,48 @@
         <v>4</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="33"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>10.666666666666666</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="1"/>
         <v>256</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="2"/>
-        <v>114.5</v>
+        <v>189.5</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="3"/>
-        <v>39.5</v>
+        <v>189.5</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>2.25</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="30"/>
-        <v>348251.75</v>
+        <f t="shared" si="5"/>
+        <v>80798.0625</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="31"/>
-        <v>65523</v>
+        <f t="shared" si="6"/>
+        <v>147052</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="32"/>
-        <v>16773888</v>
+        <f t="shared" si="7"/>
+        <v>37645312</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="8"/>
-        <v>20.708503703703705</v>
+        <v>1673.1249777777775</v>
       </c>
       <c r="M14" s="6" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N14" s="6" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1358,51 +1500,51 @@
         <v>10</v>
       </c>
       <c r="C15" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="33"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="29"/>
-        <v>640</v>
+        <f t="shared" si="1"/>
+        <v>320</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="2"/>
-        <v>58.25</v>
+        <v>95.75</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>2.5</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="30"/>
-        <v>143528</v>
+        <f t="shared" si="5"/>
+        <v>36385</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="31"/>
-        <v>35253</v>
+        <f t="shared" si="6"/>
+        <v>60693.5</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="32"/>
-        <v>22561920</v>
+        <f t="shared" si="7"/>
+        <v>19421920</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="8"/>
-        <v>27.854222222222226</v>
+        <v>863.19644444444441</v>
       </c>
       <c r="M15" s="6" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N15" s="6" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1410,79 +1552,122 @@
         <v>10</v>
       </c>
       <c r="B16" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="33"/>
-        <v>15.625</v>
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="29"/>
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>320</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>189.5</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>2.25</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="30"/>
-        <v>94208</v>
+        <f t="shared" si="5"/>
+        <v>64809</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="31"/>
-        <v>27648</v>
+        <f t="shared" si="6"/>
+        <v>118289.5</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="32"/>
-        <v>27648000</v>
+        <f t="shared" si="7"/>
+        <v>37852640</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="8"/>
-        <v>34.133333333333333</v>
+        <v>1682.3395555555558</v>
       </c>
       <c r="M16" s="6" t="b">
-        <f t="shared" si="34"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="N16" s="6" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
-        <v>64</v>
+      <c r="B19" s="14">
+        <v>24</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20">
-        <v>60</v>
+      <c r="B20" s="14">
+        <v>100</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="14">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="13">
+        <f>0.5*($C$24-$B$20*COS($B$21*PI()/180))</f>
+        <v>706.6987298107781</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="13">
+        <f>$C$24/4</f>
+        <v>375</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="13">
+        <f>$C$24/4</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -1490,58 +1675,249 @@
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="13">
+        <f>0.5*($C$24-$B$20*SIN($B$21*PI()/180))</f>
+        <v>725</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="13">
+        <f>3*$C$24/4</f>
+        <v>1125</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="13">
+        <f>3*$C$24/4</f>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="15">
         <v>15</v>
       </c>
       <c r="C24" s="3">
         <f>$B$20*B24</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="12">
+        <f>B20*COS(B21*PI()/180)</f>
+        <v>86.602540378443877</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="13">
+        <f>$C$25/4</f>
+        <v>375</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="13">
+        <f>$C$25/4</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="1">
-        <v>5</v>
+      <c r="B25" s="15">
+        <v>15</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:C26" si="35">$B$20*B25</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C25" si="12">$B$20*B25</f>
+        <v>1500</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="H25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="13">
+        <f>3*$C$25/4</f>
+        <v>1125</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="13">
+        <f>3*$C$25/4</f>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="1">
-        <v>5</v>
+      <c r="B26" s="15">
+        <v>0</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="35"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B26=0,1,$B$20*B26)</f>
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="13">
+        <f>($I$23-$I$22+1)*2</f>
+        <v>1502</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="13">
+        <f>($I$23-$I$22+1)*2</f>
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="3">
         <f>C24*C25*C26</f>
-        <v>81000000</v>
+        <v>2250000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="13">
+        <f>($I$25-$I$24+1)*2</f>
+        <v>1502</v>
+      </c>
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="13">
+        <f>($I$25-$I$24+1)*2</f>
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="13">
+        <f>0.5*($I$26-$B$20*2*COS($B$21*PI()/180))</f>
+        <v>664.3974596215561</v>
+      </c>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="13">
+        <f>($K$26/4)</f>
+        <v>375.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="13">
+        <f>0.5*($I$26-$B$20*2*SIN($B$21*PI()/180))</f>
+        <v>701</v>
+      </c>
+      <c r="J29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="13">
+        <f>(3*$K$26/4)</f>
+        <v>1126.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="13">
+        <f>$B$20*2*COS($B$21*PI()/180)</f>
+        <v>173.20508075688775</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="13">
+        <f>($K$27/4)</f>
+        <v>375.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H31" s="12"/>
+      <c r="J31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="13">
+        <f>(3*$K$27/4)</f>
+        <v>1126.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="13">
+        <f>($K$29-$K$28+1)*2</f>
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="12"/>
+      <c r="J33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="13">
+        <f>($K$31-$K$30+1)*2</f>
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H34" s="12"/>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="13">
+        <f>0.5*($K$32-$B$20*4*COS($B$21*PI()/180))</f>
+        <v>578.79491924311219</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="J35" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="13">
+        <f>0.5*($K$33-$B$20*4*SIN($B$21*PI()/180))</f>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="J36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="13">
+        <f>$B$20*4*COS($B$21*PI()/180)</f>
+        <v>346.41016151377551</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:N16">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>IF($M2,IF($N2,TRUE,FALSE),FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>IF($M2=TRUE,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1556,10 +1932,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1956,7 @@
     <col min="15" max="15" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -1623,12 +2000,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -1639,11 +2016,11 @@
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E16" si="1">A2*B2*C2</f>
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F16" si="2">($C$24/A2)+2</f>
-        <v>302</v>
+        <v>189.5</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" ref="G2:G16" si="3">($C$25/B2)+2</f>
@@ -1651,54 +2028,54 @@
       </c>
       <c r="H2" s="5">
         <f t="shared" ref="H2:H16" si="4">($C$26/C2)+2</f>
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I16" si="5">F2*G2*H2</f>
-        <v>6977408</v>
+        <v>8698808</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" ref="J2:J16" si="6">4*F2*G2+4*G2*H2+4*F2*H2</f>
-        <v>459648</v>
+        <v>527748</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" ref="K2:K16" si="7">J2*E2</f>
-        <v>5515776</v>
+        <v>33775872</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" ref="L2:L16" si="8">K2/$C$27*100</f>
-        <v>6.8096000000000005</v>
+        <v>6.2547911111111114</v>
       </c>
       <c r="M2" s="6" t="b">
         <f>IF((F2-FLOOR(F2,1))=0,IF((G2-FLOOR(G2,1))=0,IF((H2-FLOOR(H2,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="6" t="b">
         <f>IF(($D2-FLOOR($D2,1))=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="E3" s="5">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>189.5</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="3"/>
@@ -1710,54 +2087,54 @@
       </c>
       <c r="I3" s="5">
         <f t="shared" si="5"/>
-        <v>3511808</v>
+        <v>4378208</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" si="6"/>
-        <v>277248</v>
+        <v>322848</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" si="7"/>
-        <v>6653952</v>
+        <v>41324544</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="8"/>
-        <v>8.2147555555555556</v>
+        <v>7.6526933333333336</v>
       </c>
       <c r="M3" s="6" t="b">
         <f>IF((F3-FLOOR(F3,1))=0,IF((G3-FLOOR(G3,1))=0,IF((H3-FLOOR(H3,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="6" t="b">
         <f t="shared" ref="N3:N16" si="9">IF(($D3-FLOOR($D3,1))=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="3"/>
         <v>152</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="3"/>
-        <v>102</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="4"/>
@@ -1765,19 +2142,19 @@
       </c>
       <c r="I4" s="5">
         <f t="shared" si="5"/>
-        <v>2356608</v>
+        <v>2934208</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" si="6"/>
-        <v>216448</v>
+        <v>246848</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="7"/>
-        <v>7792128</v>
+        <v>47394816</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" si="8"/>
-        <v>9.6199111111111115</v>
+        <v>8.7768177777777776</v>
       </c>
       <c r="M4" s="6" t="b">
         <f t="shared" ref="M4:M6" si="10">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -1788,86 +2165,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
+        <v>95.75</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="3"/>
         <v>152</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="3"/>
-        <v>52</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="5"/>
-        <v>806208</v>
+        <v>2212208</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="6"/>
-        <v>114848</v>
+        <v>208848</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="7"/>
-        <v>12403584</v>
+        <v>53465088</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="8"/>
-        <v>15.313066666666666</v>
+        <v>9.9009422222222234</v>
       </c>
       <c r="M5" s="6" t="b">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="6" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>320</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="4"/>
@@ -1875,19 +2252,19 @@
       </c>
       <c r="I6" s="5">
         <f t="shared" si="5"/>
-        <v>2656808</v>
+        <v>1779008</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="6"/>
-        <v>254748</v>
+        <v>186048</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="7"/>
-        <v>8151936</v>
+        <v>59535360</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="8"/>
-        <v>10.064118518518518</v>
+        <v>11.025066666666666</v>
       </c>
       <c r="M6" s="6" t="b">
         <f t="shared" si="10"/>
@@ -1895,85 +2272,85 @@
       </c>
       <c r="N6" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>5.333333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>68.666666666666671</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="5"/>
-        <v>1345883</v>
+        <v>3934874.666666667</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="6"/>
-        <v>163548</v>
+        <v>374514.66666666669</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="7"/>
-        <v>10467072</v>
+        <v>53930112</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="8"/>
-        <v>12.922311111111112</v>
+        <v>9.9870577777777783</v>
       </c>
       <c r="M7" s="6" t="b">
         <f>IF((F7-FLOOR(F7,1))=0,IF((G7-FLOOR(G7,1))=0,IF((H7-FLOOR(H7,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>10.666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="2"/>
-        <v>114.5</v>
+        <v>189.5</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="3"/>
@@ -1981,23 +2358,23 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>602</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="5"/>
-        <v>678870.5</v>
+        <v>8784083</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="6"/>
-        <v>94248</v>
+        <v>700098</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="7"/>
-        <v>12063744</v>
+        <v>44806272</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="8"/>
-        <v>14.89351111111111</v>
+        <v>8.2974577777777778</v>
       </c>
       <c r="M8" s="6" t="b">
         <f t="shared" ref="M8:M16" si="11">IF((F8-FLOOR(F8,1))=0,IF((G8-FLOOR(G8,1))=0,IF((H8-FLOOR(H8,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -2005,54 +2382,54 @@
       </c>
       <c r="N8" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
       <c r="C9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="2"/>
-        <v>114.5</v>
+        <v>95.75</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>602</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="5"/>
-        <v>546623</v>
+        <v>4438395.5</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="6"/>
-        <v>82758</v>
+        <v>445473</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="7"/>
-        <v>13241280</v>
+        <v>57020544</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="8"/>
-        <v>16.347259259259257</v>
+        <v>10.55936</v>
       </c>
       <c r="M9" s="6" t="b">
         <f t="shared" si="11"/>
@@ -2060,30 +2437,30 @@
       </c>
       <c r="N9" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>64.5</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="3"/>
@@ -2091,78 +2468,78 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>602</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="5"/>
-        <v>545468</v>
+        <v>2989833</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="6"/>
-        <v>80388</v>
+        <v>360598</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="7"/>
-        <v>12862080</v>
+        <v>69234816</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="8"/>
-        <v>15.879111111111111</v>
+        <v>12.821262222222222</v>
       </c>
       <c r="M10" s="6" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>4</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
-        <v>58.25</v>
+        <v>48.875</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>602</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="5"/>
-        <v>548948</v>
+        <v>2265551.75</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="6"/>
-        <v>87558</v>
+        <v>318160.5</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" si="7"/>
-        <v>14009280</v>
+        <v>81449088</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="8"/>
-        <v>17.295407407407406</v>
+        <v>15.083164444444444</v>
       </c>
       <c r="M11" s="6" t="b">
         <f t="shared" si="11"/>
@@ -2170,54 +2547,54 @@
       </c>
       <c r="N11" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
-        <v>114.5</v>
+        <v>39.5</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="3"/>
-        <v>39.5</v>
+        <v>77</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>602</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="5"/>
-        <v>461320.5</v>
+        <v>1830983</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="6"/>
-        <v>80923</v>
+        <v>292698</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" si="7"/>
-        <v>15537216</v>
+        <v>93663360</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="8"/>
-        <v>19.181748148148149</v>
+        <v>17.345066666666668</v>
       </c>
       <c r="M12" s="6" t="b">
         <f t="shared" si="11"/>
@@ -2228,51 +2605,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>21.333333333333332</v>
+        <v>9</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>576</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="2"/>
-        <v>58.25</v>
+        <v>95.75</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>68.666666666666671</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="5"/>
-        <v>345364.25</v>
+        <v>999374.66666666674</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="6"/>
-        <v>59598</v>
+        <v>126264.66666666667</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" si="7"/>
-        <v>15257088</v>
+        <v>72728448</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="8"/>
-        <v>18.835911111111113</v>
+        <v>13.468231111111113</v>
       </c>
       <c r="M13" s="6" t="b">
         <f t="shared" si="11"/>
@@ -2280,164 +2657,164 @@
       </c>
       <c r="N13" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>21.333333333333332</v>
+        <v>0.25</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="2"/>
-        <v>114.5</v>
+        <v>377</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="3"/>
-        <v>39.5</v>
+        <v>302</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="5"/>
-        <v>348251.75</v>
+        <v>34383908</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="6"/>
-        <v>65523</v>
+        <v>1275648</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" si="7"/>
-        <v>16773888</v>
+        <v>20410368</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="8"/>
-        <v>20.708503703703705</v>
+        <v>3.7796977777777774</v>
       </c>
       <c r="M14" s="6" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
+        <v>0.125</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="2"/>
-        <v>58.25</v>
+        <v>752</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>302</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="5"/>
-        <v>283328</v>
+        <v>68585408</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="6"/>
-        <v>62328</v>
+        <v>2181648</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="7"/>
-        <v>19944960</v>
+        <v>17453184</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="8"/>
-        <v>24.623407407407409</v>
+        <v>3.2320711111111109</v>
       </c>
       <c r="M15" s="6" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="6" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>864</v>
+        <v>640</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
         <v>77</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="3"/>
-        <v>27</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="5"/>
-        <v>108108</v>
+        <v>901208</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="6"/>
-        <v>29948</v>
+        <v>117348</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="7"/>
-        <v>25875072</v>
+        <v>75102720</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="8"/>
-        <v>31.944533333333336</v>
+        <v>13.90791111111111</v>
       </c>
       <c r="M16" s="6" t="b">
         <f t="shared" si="11"/>
@@ -2447,33 +2824,30 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -2481,58 +2855,93 @@
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3">
         <f>$B$20*B24</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ref="C25:C26" si="12">$B$20*B25</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="12"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="3">
         <f>C24*C25*C26</f>
-        <v>81000000</v>
-      </c>
+        <v>540000000</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:N16">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>IF($M2,IF($N2,TRUE,FALSE),FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>IF($M2=TRUE,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2547,30 +2956,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -2598,8 +3008,8 @@
       <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>24</v>
+      <c r="J1" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>16</v>
@@ -2616,7 +3026,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
@@ -2626,39 +3036,39 @@
       </c>
       <c r="D2" s="5">
         <f t="shared" ref="D2:D16" si="0">E2/$B$19</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E16" si="1">A2*B2*C2</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F16" si="2">($C$24/A2)+2</f>
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" ref="G2:G16" si="3">($C$25/B2)+2</f>
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="H2" s="5">
         <f t="shared" ref="H2:H16" si="4">($C$26/C2)+2</f>
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I16" si="5">F2*G2*H2</f>
-        <v>16003008</v>
+        <v>2750280</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" ref="J2:J16" si="6">4*F2*G2+4*G2*H2+4*F2*H2</f>
-        <v>762048</v>
+        <v>261424</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" ref="K2:K16" si="7">J2*E2</f>
-        <v>18289152</v>
+        <v>3137088</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" ref="L2:L16" si="8">K2/$C$27*100</f>
-        <v>4.8771072000000002</v>
+        <v>9.9725341796875</v>
       </c>
       <c r="M2" s="6" t="b">
         <f>IF((F2-FLOOR(F2,1))=0,IF((G2-FLOOR(G2,1))=0,IF((H2-FLOOR(H2,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -2666,54 +3076,54 @@
       </c>
       <c r="N2" s="6" t="b">
         <f>IF(($D2-FLOOR($D2,1))=0,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="5"/>
-        <v>2048383</v>
+        <v>1385800</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" si="6"/>
-        <v>193548</v>
+        <v>152880</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" si="7"/>
-        <v>37161216</v>
+        <v>3669120</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="8"/>
-        <v>9.909657600000001</v>
+        <v>11.663818359375</v>
       </c>
       <c r="M3" s="6" t="b">
         <f>IF((F3-FLOOR(F3,1))=0,IF((G3-FLOOR(G3,1))=0,IF((H3-FLOOR(H3,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -2726,53 +3136,53 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>55.333333333333336</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="5"/>
-        <v>1321308</v>
+        <v>935133.33333333337</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" si="6"/>
-        <v>145248</v>
+        <v>125146.66666666667</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="7"/>
-        <v>43574400</v>
+        <v>4505280</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" si="8"/>
-        <v>11.61984</v>
+        <v>14.3218994140625</v>
       </c>
       <c r="M4" s="6" t="b">
         <f t="shared" ref="M4:M6" si="10">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6" t="b">
         <f t="shared" si="9"/>
@@ -2781,108 +3191,108 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>4.5</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>108</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>28.666666666666668</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>87.333333333333329</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="5"/>
-        <v>343408</v>
+        <v>325462.22222222225</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="6"/>
-        <v>63648</v>
+        <v>70334.222222222219</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="7"/>
-        <v>76377600</v>
+        <v>7596096</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="8"/>
-        <v>20.367360000000001</v>
+        <v>24.1473388671875</v>
       </c>
       <c r="M5" s="6" t="b">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>21.333333333333332</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="2"/>
-        <v>189.5</v>
+        <v>194</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="3"/>
-        <v>64.5</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="4"/>
-        <v>64.5</v>
+        <v>130</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="5"/>
-        <v>788367.375</v>
+        <v>1059240</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="6"/>
-        <v>114423</v>
+        <v>155312</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="7"/>
-        <v>58584576</v>
+        <v>4969984</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="8"/>
-        <v>15.6225536</v>
+        <v>15.799153645833334</v>
       </c>
       <c r="M6" s="6" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="6" t="b">
         <f t="shared" si="9"/>
@@ -2891,49 +3301,49 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>377</v>
+        <v>258</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="5"/>
-        <v>6080633</v>
+        <v>368424</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="6"/>
-        <v>447548</v>
+        <v>84144</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="7"/>
-        <v>28643072</v>
+        <v>8077824</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="8"/>
-        <v>7.6381525333333338</v>
+        <v>25.6787109375</v>
       </c>
       <c r="M7" s="6" t="b">
         <f>IF((F7-FLOOR(F7,1))=0,IF((G7-FLOOR(G7,1))=0,IF((H7-FLOOR(H7,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -2941,117 +3351,117 @@
       </c>
       <c r="N7" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
       <c r="C8" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>5.333333333333333</v>
+        <v>8</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="2"/>
-        <v>189.5</v>
+        <v>258</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="5"/>
-        <v>3056445.5</v>
+        <v>192984</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="6"/>
-        <v>257048</v>
+        <v>60784</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="7"/>
-        <v>32902144</v>
+        <v>11670528</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="8"/>
-        <v>8.773905066666666</v>
+        <v>37.099609375</v>
       </c>
       <c r="M8" s="6" t="b">
         <f t="shared" ref="M8:M16" si="11">IF((F8-FLOOR(F8,1))=0,IF((G8-FLOOR(G8,1))=0,IF((H8-FLOOR(H8,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
       <c r="C9" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>6.666666666666667</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>384</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="2"/>
-        <v>189.5</v>
+        <v>130</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="5"/>
-        <v>2454783</v>
+        <v>97240</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="6"/>
-        <v>225398</v>
+        <v>32112</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="7"/>
-        <v>36063680</v>
+        <v>12331008</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="8"/>
-        <v>9.6169813333333334</v>
+        <v>39.19921875</v>
       </c>
       <c r="M9" s="6" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3074,35 +3484,35 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>78.8</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="5"/>
-        <v>2451608</v>
+        <v>218433.6</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="6"/>
-        <v>218948</v>
+        <v>45129.600000000006</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="7"/>
-        <v>35031680</v>
+        <v>7220736.0000000009</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="8"/>
-        <v>9.3417813333333335</v>
+        <v>22.954101562500004</v>
       </c>
       <c r="M10" s="6" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="6" t="b">
         <f t="shared" si="9"/>
@@ -3129,35 +3539,35 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
-        <v>95.75</v>
+        <v>50</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="4"/>
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="5"/>
-        <v>2461158</v>
+        <v>221000</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="6"/>
-        <v>238398</v>
+        <v>50480</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" si="7"/>
-        <v>38143680</v>
+        <v>8076800</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="8"/>
-        <v>10.171647999999999</v>
+        <v>25.675455729166668</v>
       </c>
       <c r="M11" s="6" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="6" t="b">
         <f t="shared" si="9"/>
@@ -3184,31 +3594,31 @@
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
-        <v>189.5</v>
+        <v>98</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="3"/>
-        <v>64.5</v>
+        <v>22</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="4"/>
-        <v>168.66666666666666</v>
+        <v>87.333333333333329</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="5"/>
-        <v>2061570.5</v>
+        <v>188290.66666666666</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="6"/>
-        <v>220256.33333333331</v>
+        <v>50544</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" si="7"/>
-        <v>42289216</v>
+        <v>9704448</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="8"/>
-        <v>11.277124266666666</v>
+        <v>30.849609374999996</v>
       </c>
       <c r="M12" s="6" t="b">
         <f t="shared" si="11"/>
@@ -3239,35 +3649,35 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="2"/>
-        <v>95.75</v>
+        <v>50</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="5"/>
-        <v>1544351.75</v>
+        <v>138600</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="6"/>
-        <v>161798</v>
+        <v>32688</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" si="7"/>
-        <v>41420288</v>
+        <v>8368128</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="8"/>
-        <v>11.045410133333334</v>
+        <v>26.601562499999996</v>
       </c>
       <c r="M13" s="6" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="6" t="b">
         <f t="shared" si="9"/>
@@ -3294,35 +3704,35 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" si="2"/>
-        <v>189.5</v>
+        <v>98</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="3"/>
-        <v>64.5</v>
+        <v>22</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="5"/>
-        <v>1552289.25</v>
+        <v>142296</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="6"/>
-        <v>177923</v>
+        <v>40304</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" si="7"/>
-        <v>45548288</v>
+        <v>10317824</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="8"/>
-        <v>12.146210133333334</v>
+        <v>32.799479166666664</v>
       </c>
       <c r="M14" s="6" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="6" t="b">
         <f t="shared" si="9"/>
@@ -3349,35 +3759,35 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" si="2"/>
-        <v>95.75</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="4"/>
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="5"/>
-        <v>1254708</v>
+        <v>117000</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="6"/>
-        <v>168848</v>
+        <v>38960</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="7"/>
-        <v>54031360</v>
+        <v>12467200</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="8"/>
-        <v>14.408362666666665</v>
+        <v>39.632161458333329</v>
       </c>
       <c r="M15" s="6" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="6" t="b">
         <f t="shared" si="9"/>
@@ -3386,60 +3796,60 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" s="4">
         <v>8</v>
       </c>
       <c r="C16" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>16</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="3"/>
-        <v>64.5</v>
+        <v>22</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="5"/>
-        <v>1245108</v>
+        <v>97240</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="6"/>
-        <v>149198</v>
+        <v>32112</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="7"/>
-        <v>47743360</v>
+        <v>12331008</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="8"/>
-        <v>12.731562666666665</v>
+        <v>39.19921875</v>
       </c>
       <c r="M16" s="6" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="6" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
@@ -3450,18 +3860,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -3470,57 +3880,91 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3">
         <f>$B$20*B24</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ref="C25:C26" si="12">$B$20*B25</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="12"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="3">
         <f>C24*C25*C26</f>
-        <v>375000000</v>
-      </c>
+        <v>31457280</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:N16">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>IF($M2,IF($N2,TRUE,FALSE),FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>IF($M2=TRUE,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3535,10 +3979,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3550,14 +3995,15 @@
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -3585,8 +4031,8 @@
       <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>24</v>
+      <c r="J1" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>16</v>
@@ -3612,40 +4058,40 @@
         <v>2</v>
       </c>
       <c r="D2" s="5">
-        <f>E2/$B$7</f>
-        <v>1</v>
+        <f t="shared" ref="D2:D16" si="0">E2/$B$19</f>
+        <v>0.5</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:E4" si="0">A2*B2*C2</f>
+        <f t="shared" ref="E2:E16" si="1">A2*B2*C2</f>
         <v>16</v>
       </c>
       <c r="F2" s="5">
-        <f>($C$12/A2)+2</f>
-        <v>227</v>
+        <f t="shared" ref="F2:F16" si="2">($C$24/A2)+2</f>
+        <v>194</v>
       </c>
       <c r="G2" s="5">
-        <f>($C$13/B2)+2</f>
-        <v>152</v>
+        <f t="shared" ref="G2:G16" si="3">($C$25/B2)+2</f>
+        <v>82</v>
       </c>
       <c r="H2" s="5">
-        <f>($C$14/C2)+2</f>
-        <v>152</v>
+        <f t="shared" ref="H2:H16" si="4">($C$26/C2)+2</f>
+        <v>130</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I4" si="1">F2*G2*H2</f>
-        <v>5244608</v>
+        <f t="shared" ref="I2:I16" si="5">F2*G2*H2</f>
+        <v>2068040</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J4" si="2">4*F2*G2+4*G2*H2+4*F2*H2</f>
-        <v>368448</v>
+        <f t="shared" ref="J2:J16" si="6">4*F2*G2+4*G2*H2+4*F2*H2</f>
+        <v>207152</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" ref="K2:K4" si="3">J2*E2</f>
-        <v>5895168</v>
+        <f t="shared" ref="K2:K16" si="7">J2*E2</f>
+        <v>3314432</v>
       </c>
       <c r="L2" s="5">
-        <f>K2/$C$15*100</f>
-        <v>7.2779851851851847</v>
+        <f t="shared" ref="L2:L16" si="8">K2/$C$27*100</f>
+        <v>10.536295572916666</v>
       </c>
       <c r="M2" s="6" t="b">
         <f>IF((F2-FLOOR(F2,1))=0,IF((G2-FLOOR(G2,1))=0,IF((H2-FLOOR(H2,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -3653,7 +4099,7 @@
       </c>
       <c r="N2" s="6" t="b">
         <f>IF(($D2-FLOOR($D2,1))=0,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3661,193 +4107,887 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <f>E3/$B$7</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.625</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="F3" s="5">
-        <f>($C$12/A3)+2</f>
-        <v>452</v>
+        <f t="shared" si="2"/>
+        <v>386</v>
       </c>
       <c r="G3" s="5">
-        <f>($C$13/B3)+2</f>
-        <v>77</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="H3" s="5">
-        <f>($C$14/C3)+2</f>
-        <v>152</v>
+        <f t="shared" si="4"/>
+        <v>130</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="1"/>
-        <v>5290208</v>
+        <f t="shared" si="5"/>
+        <v>1706120</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="2"/>
-        <v>460848</v>
+        <f t="shared" si="6"/>
+        <v>270896</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="3"/>
-        <v>7373568</v>
+        <f t="shared" si="7"/>
+        <v>5417920</v>
       </c>
       <c r="L3" s="5">
-        <f>K3/$C$15*100</f>
-        <v>9.1031703703703695</v>
+        <f t="shared" si="8"/>
+        <v>17.223103841145836</v>
       </c>
       <c r="M3" s="6" t="b">
         <f>IF((F3-FLOOR(F3,1))=0,IF((G3-FLOOR(G3,1))=0,IF((H3-FLOOR(H3,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="N3" s="6" t="b">
-        <f t="shared" ref="N3:N4" si="4">IF(($D3-FLOOR($D3,1))=0,TRUE,FALSE)</f>
-        <v>1</v>
+        <f t="shared" ref="N3:N16" si="9">IF(($D3-FLOOR($D3,1))=0,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5">
-        <f>E4/$B$7</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.625</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="2"/>
+        <v>155.6</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="5"/>
+        <v>1658695.9999999998</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="6"/>
+        <v>174588.79999999999</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="7"/>
+        <v>3491776</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="8"/>
+        <v>11.100056966145834</v>
+      </c>
+      <c r="M4" s="6" t="b">
+        <f t="shared" ref="M4:M6" si="10">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>386</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="5"/>
+        <v>4114760</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="6"/>
+        <v>369968</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="7"/>
+        <v>2959744</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="8"/>
+        <v>9.4087727864583339</v>
+      </c>
+      <c r="M5" s="6" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="5"/>
+        <v>1059240</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="6"/>
+        <v>155312</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="7"/>
+        <v>4969984</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="8"/>
+        <v>15.799153645833334</v>
+      </c>
+      <c r="M6" s="6" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="5"/>
+        <v>537768</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="6"/>
+        <v>94896</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="7"/>
+        <v>6073344</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="8"/>
+        <v>19.306640625</v>
+      </c>
+      <c r="M7" s="6" t="b">
+        <f>IF((F7-FLOOR(F7,1))=0,IF((G7-FLOOR(G7,1))=0,IF((H7-FLOOR(H7,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="5"/>
+        <v>271656</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="6"/>
+        <v>53424</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="7"/>
+        <v>6838272</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="8"/>
+        <v>21.73828125</v>
+      </c>
+      <c r="M8" s="6" t="b">
+        <f t="shared" ref="M8:M16" si="11">IF((F8-FLOOR(F8,1))=0,IF((G8-FLOOR(G8,1))=0,IF((H8-FLOOR(H8,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="5"/>
+        <v>219912</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="6"/>
+        <v>48176</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="7"/>
+        <v>7708160</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="8"/>
+        <v>24.503580729166664</v>
+      </c>
+      <c r="M9" s="6" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>78.8</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="5"/>
+        <v>218433.6</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="6"/>
+        <v>45129.600000000006</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="7"/>
+        <v>7220736.0000000009</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="8"/>
+        <v>22.954101562500004</v>
+      </c>
+      <c r="M10" s="6" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>16</v>
       </c>
-      <c r="F4" s="5">
-        <f>($C$12/A4)+2</f>
-        <v>452</v>
-      </c>
-      <c r="G4" s="5">
-        <f>($C$13/B4)+2</f>
-        <v>152</v>
-      </c>
-      <c r="H4" s="5">
-        <f>($C$14/C4)+2</f>
-        <v>77</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="1"/>
-        <v>5290208</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="2"/>
-        <v>460848</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="3"/>
-        <v>7373568</v>
-      </c>
-      <c r="L4" s="5">
-        <f>K4/$C$15*100</f>
-        <v>9.1031703703703695</v>
-      </c>
-      <c r="M4" s="6" t="b">
-        <f t="shared" ref="M4" si="5">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="6" t="b">
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="5"/>
+        <v>221000</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="6"/>
+        <v>50480</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="7"/>
+        <v>8076800</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="8"/>
+        <v>25.675455729166668</v>
+      </c>
+      <c r="M11" s="6" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="4"/>
+        <v>87.333333333333329</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="5"/>
+        <v>188290.66666666666</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="6"/>
+        <v>50544</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="7"/>
+        <v>9704448</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="8"/>
+        <v>30.849609374999996</v>
+      </c>
+      <c r="M12" s="6" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="5"/>
+        <v>138600</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="6"/>
+        <v>32688</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="7"/>
+        <v>8368128</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="8"/>
+        <v>26.601562499999996</v>
+      </c>
+      <c r="M13" s="6" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="5"/>
+        <v>182952</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="6"/>
+        <v>39600</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="7"/>
+        <v>7603200</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="8"/>
+        <v>24.169921875</v>
+      </c>
+      <c r="M14" s="6" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="5"/>
+        <v>113288</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="6"/>
+        <v>31280</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="7"/>
+        <v>10009600</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="8"/>
+        <v>31.819661458333332</v>
+      </c>
+      <c r="M15" s="6" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>78.8</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="5"/>
+        <v>58942.399999999994</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="6"/>
+        <v>20643.199999999997</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="7"/>
+        <v>13211647.999999998</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="8"/>
+        <v>41.998697916666657</v>
+      </c>
+      <c r="M16" s="6" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="20" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>60</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B20">
+        <v>64</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3">
-        <f>$B$8*B12</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3">
+        <f>$B$20*B24</f>
+        <v>768</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" ref="C13:C14" si="6">$B$8*B13</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:C26" si="12">$B$20*B25</f>
+        <v>160</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="12"/>
+        <v>256</v>
+      </c>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
-        <f>C12*C13*C14</f>
-        <v>81000000</v>
-      </c>
+      <c r="C27" s="3">
+        <f>C24*C25*C26</f>
+        <v>31457280</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:N4">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A2:N16">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>IF($M2,IF($N2,TRUE,FALSE),FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>IF($M2=TRUE,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3862,17 +5002,346 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <f>E2/$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" ref="E2:E4" si="0">A2*B2*C2</f>
+        <v>16</v>
+      </c>
+      <c r="F2" s="5">
+        <f>($C$12/A2)+2</f>
+        <v>377</v>
+      </c>
+      <c r="G2" s="5">
+        <f>($C$13/B2)+2</f>
+        <v>302</v>
+      </c>
+      <c r="H2" s="5">
+        <f>($C$14/C2)+2</f>
+        <v>302</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I4" si="1">F2*G2*H2</f>
+        <v>34383908</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" ref="J2:J4" si="2">4*F2*G2+4*G2*H2+4*F2*H2</f>
+        <v>1275648</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" ref="K2:K4" si="3">J2*E2</f>
+        <v>20410368</v>
+      </c>
+      <c r="L2" s="5">
+        <f>K2/$C$15*100</f>
+        <v>3.7796977777777774</v>
+      </c>
+      <c r="M2" s="6" t="b">
+        <f>IF((F2-FLOOR(F2,1))=0,IF((G2-FLOOR(G2,1))=0,IF((H2-FLOOR(H2,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="6" t="b">
+        <f>IF(($D2-FLOOR($D2,1))=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <f>E3/$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F3" s="5">
+        <f>($C$12/A3)+2</f>
+        <v>752</v>
+      </c>
+      <c r="G3" s="5">
+        <f>($C$13/B3)+2</f>
+        <v>152</v>
+      </c>
+      <c r="H3" s="5">
+        <f>($C$14/C3)+2</f>
+        <v>302</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="1"/>
+        <v>34519808</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="2"/>
+        <v>1549248</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" si="3"/>
+        <v>24787968</v>
+      </c>
+      <c r="L3" s="5">
+        <f>K3/$C$15*100</f>
+        <v>4.5903644444444449</v>
+      </c>
+      <c r="M3" s="6" t="b">
+        <f>IF((F3-FLOOR(F3,1))=0,IF((G3-FLOOR(G3,1))=0,IF((H3-FLOOR(H3,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="b">
+        <f t="shared" ref="N3:N4" si="4">IF(($D3-FLOOR($D3,1))=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <f>E4/$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F4" s="5">
+        <f>($C$12/A4)+2</f>
+        <v>752</v>
+      </c>
+      <c r="G4" s="5">
+        <f>($C$13/B4)+2</f>
+        <v>302</v>
+      </c>
+      <c r="H4" s="5">
+        <f>($C$14/C4)+2</f>
+        <v>152</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="1"/>
+        <v>34519808</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="2"/>
+        <v>1549248</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="3"/>
+        <v>24787968</v>
+      </c>
+      <c r="L4" s="5">
+        <f>K4/$C$15*100</f>
+        <v>4.5903644444444449</v>
+      </c>
+      <c r="M4" s="6" t="b">
+        <f t="shared" ref="M4" si="5">IF((F4-FLOOR(F4,1))=0,IF((G4-FLOOR(G4,1))=0,IF((H4-FLOOR(H4,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <f>$B$8*B12</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ref="C13:C14" si="6">$B$8*B13</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <f>C12*C13*C14</f>
+        <v>540000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:N4">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>IF($M2,IF($N2,TRUE,FALSE),FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>IF($M2=TRUE,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.21875" bestFit="1" customWidth="1"/>
@@ -3939,7 +5408,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="5">
-        <f>E2/$B$5</f>
+        <f>E2/$B$6</f>
         <v>1</v>
       </c>
       <c r="E2" s="5">
@@ -3947,32 +5416,32 @@
         <v>8</v>
       </c>
       <c r="F2" s="5">
-        <f>($C$10/A2)+2</f>
-        <v>152</v>
+        <f>($C$11/A2)+2</f>
+        <v>202</v>
       </c>
       <c r="G2" s="5">
-        <f>($C$11/B2)+2</f>
-        <v>52</v>
+        <f>($C$12/B2)+2</f>
+        <v>82</v>
       </c>
       <c r="H2" s="5">
-        <f>($C$12/C2)+2</f>
-        <v>52</v>
+        <f>($C$13/C2)+2</f>
+        <v>82</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2" si="1">F2*G2*H2</f>
-        <v>411008</v>
+        <v>1358248</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" ref="J2" si="2">4*F2*G2+4*G2*H2+4*F2*H2</f>
-        <v>74048</v>
+        <v>159408</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" ref="K2" si="3">J2*E2</f>
-        <v>592384</v>
+        <v>1275264</v>
       </c>
       <c r="L2" s="5">
-        <f>K2/$C$13*100</f>
-        <v>19.746133333333333</v>
+        <f>K2/$C$14*100</f>
+        <v>12.453749999999999</v>
       </c>
       <c r="M2" s="6" t="b">
         <f>IF((F2-FLOOR(F2,1))=0,IF((G2-FLOOR(G2,1))=0,IF((H2-FLOOR(H2,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
@@ -3983,89 +5452,186 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <f>E3/$B$6</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3" si="4">A3*B3*C3</f>
+        <v>16</v>
+      </c>
+      <c r="F3" s="5">
+        <f>($C$11/A3)+2</f>
+        <v>102</v>
+      </c>
+      <c r="G3" s="5">
+        <f>($C$12/B3)+2</f>
+        <v>82</v>
+      </c>
+      <c r="H3" s="5">
+        <f>($C$13/C3)+2</f>
+        <v>82</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3" si="5">F3*G3*H3</f>
+        <v>685848</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3" si="6">4*F3*G3+4*G3*H3+4*F3*H3</f>
+        <v>93808</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3" si="7">J3*E3</f>
+        <v>1500928</v>
+      </c>
+      <c r="L3" s="5">
+        <f>K3/$C$14*100</f>
+        <v>14.657500000000001</v>
+      </c>
+      <c r="M3" s="6" t="b">
+        <f>IF((F3-FLOOR(F3,1))=0,IF((G3-FLOOR(G3,1))=0,IF((H3-FLOOR(H3,1))=0,TRUE,FALSE),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="b">
+        <f>IF(($D3-FLOOR($D3,1))=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3">
-        <f>$B$6*B10</f>
-        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:C12" si="4">$B$6*B11</f>
-        <v>100</v>
-      </c>
+        <f>$B$7*B11</f>
+        <v>400</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:C13" si="8">$B$7*B12</f>
+        <v>160</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
-        <f>C10*C11*C12</f>
-        <v>3000000</v>
-      </c>
+      <c r="C14" s="3">
+        <f>C11*C12*C13</f>
+        <v>10240000</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:N2">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>IF($M2,IF($N2,TRUE,FALSE),FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>IF($M2=TRUE,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:N3">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>IF($M3,IF($N3,TRUE,FALSE),FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>IF($M3=TRUE,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
